--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E527"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11148,6 +11148,88 @@
       <c r="E527" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>344.1788888888889</v>
+      </c>
+      <c r="C528" t="n">
+        <v>341.99</v>
+      </c>
+      <c r="D528" t="n">
+        <v>341.83</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>332.1011111111111</v>
+      </c>
+      <c r="C529" t="n">
+        <v>343.09</v>
+      </c>
+      <c r="D529" t="n">
+        <v>348.68</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>343.9366666666667</v>
+      </c>
+      <c r="C530" t="n">
+        <v>355.61</v>
+      </c>
+      <c r="D530" t="n">
+        <v>353.66</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="n">
+        <v>321.34</v>
+      </c>
+      <c r="D531" t="n">
+        <v>364.93</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11162,7 +11244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17770,6 +17852,76 @@
       </c>
       <c r="B660" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +18090,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.371160928578919</v>
+        <v>-0.358627896251466</v>
       </c>
       <c r="J2" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06007548773535676</v>
+        <v>0.05658776424589784</v>
       </c>
       <c r="M2" t="n">
-        <v>7.222585164781886</v>
+        <v>7.236673086608199</v>
       </c>
       <c r="N2" t="n">
-        <v>93.08627584448122</v>
+        <v>93.22594144508868</v>
       </c>
       <c r="O2" t="n">
-        <v>9.648122918188864</v>
+        <v>9.655358172801705</v>
       </c>
       <c r="P2" t="n">
-        <v>340.2460942724883</v>
+        <v>340.1043980655311</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18015,28 +18167,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4079779358294493</v>
+        <v>-0.4043710722820125</v>
       </c>
       <c r="J3" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K3" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0758202336738516</v>
+        <v>0.07475116757841549</v>
       </c>
       <c r="M3" t="n">
-        <v>7.499597907323087</v>
+        <v>7.526073076023959</v>
       </c>
       <c r="N3" t="n">
-        <v>90.48431967091234</v>
+        <v>91.04101297537316</v>
       </c>
       <c r="O3" t="n">
-        <v>9.512324619719006</v>
+        <v>9.541541436024536</v>
       </c>
       <c r="P3" t="n">
-        <v>348.8384485602759</v>
+        <v>348.7982419156567</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18092,28 +18244,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.34804702513778</v>
+        <v>-0.3303392744569438</v>
       </c>
       <c r="J4" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05120729806939084</v>
+        <v>0.04648725091124706</v>
       </c>
       <c r="M4" t="n">
-        <v>7.388074783847959</v>
+        <v>7.409881385158233</v>
       </c>
       <c r="N4" t="n">
-        <v>99.89919313037309</v>
+        <v>100.4670296477303</v>
       </c>
       <c r="O4" t="n">
-        <v>9.99495838562488</v>
+        <v>10.02332428128165</v>
       </c>
       <c r="P4" t="n">
-        <v>351.23090248213</v>
+        <v>351.0320635880074</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18150,7 +18302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E527"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31671,6 +31823,110 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-45.35995889739791,170.86311843714412</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-45.36052937700448,170.86273558871974</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-45.36112114445203,170.8624306936736</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-45.35991384522496,170.8629781497475</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-45.36053318867754,170.86274854611617</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-45.36114303684033,170.86251242606022</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-45.35995799386932,170.86311562365043</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-45.36057657234579,170.8628960249723</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-45.36115895273037,170.86257184614269</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-45.36045782123801,170.8624923433819</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-45.36119497110836,170.8627063170182</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -17935,7 +17935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18026,35 +18026,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18113,27 +18118,28 @@
       <c r="P2" t="n">
         <v>340.1043980655311</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.85912077441174 -45.35867498530262, 170.86935751199937 -45.36196228172941)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8591207744117</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.35867498530262</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8693575119994</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.36196228172941</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8642391432056</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.36031863351602</v>
       </c>
     </row>
@@ -18190,27 +18196,28 @@
       <c r="P3" t="n">
         <v>348.7982419156567</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.85870722076484 -45.35934425796173, 170.8690888046425 -45.36239806451917)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8587072207648</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.35934425796173</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8690888046425</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.36239806451917</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8638980127037</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.36087116124045</v>
       </c>
     </row>
@@ -18267,27 +18274,28 @@
       <c r="P4" t="n">
         <v>351.0320635880074</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.85835215107 -45.36002859337342, 170.86886814173351 -45.36284521475585)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.85835215107</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.36002859337342</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8688681417335</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.36284521475585</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.8636101464018</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.36143690406463</v>
       </c>
     </row>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11228,6 +11228,132 @@
         <v>364.93</v>
       </c>
       <c r="E531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>338.4133333333333</v>
+      </c>
+      <c r="C532" t="n">
+        <v>351.84</v>
+      </c>
+      <c r="D532" t="n">
+        <v>351.46</v>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:54+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>331.6322222222223</v>
+      </c>
+      <c r="C533" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="D533" t="n">
+        <v>340.74</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>320.5977777777778</v>
+      </c>
+      <c r="C534" t="n">
+        <v>330.27</v>
+      </c>
+      <c r="D534" t="n">
+        <v>334.26</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>324.3933333333333</v>
+      </c>
+      <c r="C535" t="n">
+        <v>339.86</v>
+      </c>
+      <c r="D535" t="n">
+        <v>339.97</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>343.7244444444444</v>
+      </c>
+      <c r="C536" t="n">
+        <v>340.08</v>
+      </c>
+      <c r="D536" t="n">
+        <v>357.51</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>331.9377777777778</v>
+      </c>
+      <c r="C537" t="n">
+        <v>331.61</v>
+      </c>
+      <c r="D537" t="n">
+        <v>348.18</v>
+      </c>
+      <c r="E537" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11244,7 +11370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17922,6 +18048,66 @@
       </c>
       <c r="B667" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -18095,28 +18281,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.358627896251466</v>
+        <v>-0.3563235793174162</v>
       </c>
       <c r="J2" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K2" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05658776424589784</v>
+        <v>0.05686222752249803</v>
       </c>
       <c r="M2" t="n">
-        <v>7.236673086608199</v>
+        <v>7.227421395711305</v>
       </c>
       <c r="N2" t="n">
-        <v>93.22594144508868</v>
+        <v>92.83679989677771</v>
       </c>
       <c r="O2" t="n">
-        <v>9.655358172801705</v>
+        <v>9.635185514393468</v>
       </c>
       <c r="P2" t="n">
-        <v>340.1043980655311</v>
+        <v>340.0780516920381</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18173,28 +18359,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4043710722820125</v>
+        <v>-0.4061852984814942</v>
       </c>
       <c r="J3" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K3" t="n">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07475116757841549</v>
+        <v>0.07665372646709134</v>
       </c>
       <c r="M3" t="n">
-        <v>7.526073076023959</v>
+        <v>7.508400990513354</v>
       </c>
       <c r="N3" t="n">
-        <v>91.04101297537316</v>
+        <v>90.57147472036304</v>
       </c>
       <c r="O3" t="n">
-        <v>9.541541436024536</v>
+        <v>9.516904681689475</v>
       </c>
       <c r="P3" t="n">
-        <v>348.7982419156567</v>
+        <v>348.81895692913</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18251,28 +18437,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3303392744569438</v>
+        <v>-0.3229896978878217</v>
       </c>
       <c r="J4" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K4" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04648725091124706</v>
+        <v>0.0452599153326475</v>
       </c>
       <c r="M4" t="n">
-        <v>7.409881385158233</v>
+        <v>7.405200459757732</v>
       </c>
       <c r="N4" t="n">
-        <v>100.4670296477303</v>
+        <v>100.062831518931</v>
       </c>
       <c r="O4" t="n">
-        <v>10.02332428128165</v>
+        <v>10.00314108262655</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0320635880074</v>
+        <v>350.9487633523736</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18310,7 +18496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31935,6 +32121,168 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-45.35993739091247,170.86305146827476</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-45.36056350875288,170.86285161637863</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-45.36115192161803,170.86254559630282</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:54+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-45.359912096185944,170.86297270345207</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-45.36049836379276,170.862630162697</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-45.36111766084042,170.86241768808813</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-45.359870935671005,170.86284453492556</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-45.36048876527103,170.8625975336614</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-45.36109695089914,170.86234037051304</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-45.35988509380985,170.86288862147006</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-45.36052199621526,170.86271049849353</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-45.3611151999396,170.86240850065718</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-45.3599572022456,170.86311315861698</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-45.360522758550545,170.862713089972</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-45.36117125716269,170.8626177833785</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-45.35991323596258,170.8629762525782</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-45.36049340860036,170.86261331810317</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-45.36114143885773,170.86250646019042</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11354,6 +11354,90 @@
         <v>348.18</v>
       </c>
       <c r="E537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>339.5866666666667</v>
+      </c>
+      <c r="C538" t="n">
+        <v>352.83</v>
+      </c>
+      <c r="D538" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>334.5722222222223</v>
+      </c>
+      <c r="C539" t="n">
+        <v>355.88</v>
+      </c>
+      <c r="D539" t="n">
+        <v>350</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>338.2144444444444</v>
+      </c>
+      <c r="C540" t="n">
+        <v>361.46</v>
+      </c>
+      <c r="D540" t="n">
+        <v>353.3</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>318.8933333333333</v>
+      </c>
+      <c r="C541" t="n">
+        <v>323.42</v>
+      </c>
+      <c r="D541" t="n">
+        <v>322.44</v>
+      </c>
+      <c r="E541" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11370,7 +11454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18108,6 +18192,46 @@
       </c>
       <c r="B673" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -18281,28 +18405,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3563235793174162</v>
+        <v>-0.3529820622918342</v>
       </c>
       <c r="J2" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05686222752249803</v>
+        <v>0.05644016538604235</v>
       </c>
       <c r="M2" t="n">
-        <v>7.227421395711305</v>
+        <v>7.232990029910711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.83679989677771</v>
+        <v>92.66156702327905</v>
       </c>
       <c r="O2" t="n">
-        <v>9.635185514393468</v>
+        <v>9.626087835838558</v>
       </c>
       <c r="P2" t="n">
-        <v>340.0780516920381</v>
+        <v>340.0397846644275</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18359,28 +18483,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4061852984814942</v>
+        <v>-0.3886116913591666</v>
       </c>
       <c r="J3" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07665372646709134</v>
+        <v>0.06982412621892009</v>
       </c>
       <c r="M3" t="n">
-        <v>7.508400990513354</v>
+        <v>7.59122648668895</v>
       </c>
       <c r="N3" t="n">
-        <v>90.57147472036304</v>
+        <v>92.47313397141211</v>
       </c>
       <c r="O3" t="n">
-        <v>9.516904681689475</v>
+        <v>9.616295231086248</v>
       </c>
       <c r="P3" t="n">
-        <v>348.81895692913</v>
+        <v>348.6193096632123</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18437,28 +18561,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3229896978878217</v>
+        <v>-0.3183033698805264</v>
       </c>
       <c r="J4" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K4" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0452599153326475</v>
+        <v>0.04406752375205181</v>
       </c>
       <c r="M4" t="n">
-        <v>7.405200459757732</v>
+        <v>7.450275364545092</v>
       </c>
       <c r="N4" t="n">
-        <v>100.062831518931</v>
+        <v>100.7837073468953</v>
       </c>
       <c r="O4" t="n">
-        <v>10.00314108262655</v>
+        <v>10.03910889207281</v>
       </c>
       <c r="P4" t="n">
-        <v>350.9487633523736</v>
+        <v>350.8956155023796</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18496,7 +18620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32283,6 +32407,114 @@
         </is>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-45.35994176764493,170.86306509693236</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-45.360566939247086,170.86286327804976</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-45.36116544052423,170.86259606759174</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-45.359923062904976,170.86300685250453</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-45.36057750793404,170.86289920542941</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-45.36114725551293,170.86252817595826</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-45.359936649023,170.86304915811428</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-45.360596843404736,170.86296493490048</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-45.36115780218513,170.86256755071386</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-45.359864577766004,170.86282473728673</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-45.36046502881521,170.8625168445787</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-45.36105917429978,170.8621993376786</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-45.35995807676186,170.8631158817691</t>
+          <t>-45.35995807676187,170.8631158817691</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -23931,7 +23931,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-45.360542405990095,170.862779879464</t>
+          <t>-45.3605424059901,170.862779879464</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11440,6 +11440,27 @@
       <c r="E541" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>325.5766666666667</v>
+      </c>
+      <c r="C542" t="n">
+        <v>341.34</v>
+      </c>
+      <c r="D542" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11454,7 +11475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18232,6 +18253,16 @@
       </c>
       <c r="B677" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -18405,28 +18436,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3529820622918342</v>
+        <v>-0.3553488235422116</v>
       </c>
       <c r="J2" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K2" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05644016538604235</v>
+        <v>0.0573527085059321</v>
       </c>
       <c r="M2" t="n">
-        <v>7.232990029910711</v>
+        <v>7.229119475166482</v>
       </c>
       <c r="N2" t="n">
-        <v>92.66156702327905</v>
+        <v>92.53079805395453</v>
       </c>
       <c r="O2" t="n">
-        <v>9.626087835838558</v>
+        <v>9.619293012168541</v>
       </c>
       <c r="P2" t="n">
-        <v>340.0397846644275</v>
+        <v>340.0670367291476</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18483,28 +18514,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3886116913591666</v>
+        <v>-0.3874108446774862</v>
       </c>
       <c r="J3" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K3" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06982412621892009</v>
+        <v>0.06968490262899985</v>
       </c>
       <c r="M3" t="n">
-        <v>7.59122648668895</v>
+        <v>7.580842036513</v>
       </c>
       <c r="N3" t="n">
-        <v>92.47313397141211</v>
+        <v>92.29376978911007</v>
       </c>
       <c r="O3" t="n">
-        <v>9.616295231086248</v>
+        <v>9.60696465014367</v>
       </c>
       <c r="P3" t="n">
-        <v>348.6193096632123</v>
+        <v>348.6056256406518</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18561,28 +18592,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3183033698805264</v>
+        <v>-0.319637137260599</v>
       </c>
       <c r="J4" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04406752375205181</v>
+        <v>0.04459032317332301</v>
       </c>
       <c r="M4" t="n">
-        <v>7.450275364545092</v>
+        <v>7.441136831815763</v>
       </c>
       <c r="N4" t="n">
-        <v>100.7837073468953</v>
+        <v>100.5928548023767</v>
       </c>
       <c r="O4" t="n">
-        <v>10.03910889207281</v>
+        <v>10.02959893527038</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8956155023796</v>
+        <v>350.9108356365061</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18620,7 +18651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32515,6 +32546,33 @@
         </is>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-45.359889507863194,170.86290236625507</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-45.36052712465153,170.86272793207723</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-45.36111408134807,170.86240432455247</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E542"/>
+  <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11461,6 +11461,48 @@
       <c r="E542" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>331.7766666666667</v>
+      </c>
+      <c r="C543" t="n">
+        <v>347.76</v>
+      </c>
+      <c r="D543" t="n">
+        <v>342.49</v>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>327.6644444444445</v>
+      </c>
+      <c r="C544" t="n">
+        <v>341.76</v>
+      </c>
+      <c r="D544" t="n">
+        <v>342.65</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18263,6 +18305,26 @@
       </c>
       <c r="B678" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -18436,28 +18498,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3553488235422116</v>
+        <v>-0.3563682206592042</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0573527085059321</v>
+        <v>0.05811854596219423</v>
       </c>
       <c r="M2" t="n">
-        <v>7.229119475166482</v>
+        <v>7.208037147265079</v>
       </c>
       <c r="N2" t="n">
-        <v>92.53079805395453</v>
+        <v>92.17706258934855</v>
       </c>
       <c r="O2" t="n">
-        <v>9.619293012168541</v>
+        <v>9.600888635399775</v>
       </c>
       <c r="P2" t="n">
-        <v>340.0670367291476</v>
+        <v>340.0788358566199</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18514,28 +18576,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3874108446774862</v>
+        <v>-0.3820209279794907</v>
       </c>
       <c r="J3" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K3" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06968490262899985</v>
+        <v>0.06829290070287375</v>
       </c>
       <c r="M3" t="n">
-        <v>7.580842036513</v>
+        <v>7.574150983951311</v>
       </c>
       <c r="N3" t="n">
-        <v>92.29376978911007</v>
+        <v>92.10180975080419</v>
       </c>
       <c r="O3" t="n">
-        <v>9.60696465014367</v>
+        <v>9.596968779297148</v>
       </c>
       <c r="P3" t="n">
-        <v>348.6056256406518</v>
+        <v>348.5439992548125</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18592,28 +18654,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.319637137260599</v>
+        <v>-0.3196999319735923</v>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04459032317332301</v>
+        <v>0.04496606389922631</v>
       </c>
       <c r="M4" t="n">
-        <v>7.441136831815763</v>
+        <v>7.41055848383809</v>
       </c>
       <c r="N4" t="n">
-        <v>100.5928548023767</v>
+        <v>100.1746424774061</v>
       </c>
       <c r="O4" t="n">
-        <v>10.02959893527038</v>
+        <v>10.00872831469644</v>
       </c>
       <c r="P4" t="n">
-        <v>350.9108356365061</v>
+        <v>350.911554125989</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18651,7 +18713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E542"/>
+  <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32573,6 +32635,60 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-45.359912634989456,170.86297438122077</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-45.360549370946245,170.86280355617362</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-45.36112325379413,170.86243856861603</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-45.359897295658534,170.8629266164492</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-45.36052858001811,170.86273287944616</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-45.361123765149706,170.8624404776931</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E544"/>
+  <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11501,6 +11501,46 @@
         <v>342.65</v>
       </c>
       <c r="E544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:17+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>357.3311111111111</v>
+      </c>
+      <c r="C545" t="n">
+        <v>339.21</v>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>328.1377777777778</v>
+      </c>
+      <c r="C546" t="n">
+        <v>344.76</v>
+      </c>
+      <c r="D546" t="n">
+        <v>344.91</v>
+      </c>
+      <c r="E546" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11517,7 +11557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18325,6 +18365,26 @@
       </c>
       <c r="B680" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -18498,28 +18558,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3563682206592042</v>
+        <v>-0.3459708433730784</v>
       </c>
       <c r="J2" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K2" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05811854596219423</v>
+        <v>0.05460423506593526</v>
       </c>
       <c r="M2" t="n">
-        <v>7.208037147265079</v>
+        <v>7.238310945010472</v>
       </c>
       <c r="N2" t="n">
-        <v>92.17706258934855</v>
+        <v>93.23224761346576</v>
       </c>
       <c r="O2" t="n">
-        <v>9.600888635399775</v>
+        <v>9.655684730430346</v>
       </c>
       <c r="P2" t="n">
-        <v>340.0788358566199</v>
+        <v>339.9583734822682</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18576,28 +18636,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3820209279794907</v>
+        <v>-0.3791132550218773</v>
       </c>
       <c r="J3" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K3" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06829290070287375</v>
+        <v>0.06780519024565335</v>
       </c>
       <c r="M3" t="n">
-        <v>7.574150983951311</v>
+        <v>7.555975647286338</v>
       </c>
       <c r="N3" t="n">
-        <v>92.10180975080419</v>
+        <v>91.7949730620421</v>
       </c>
       <c r="O3" t="n">
-        <v>9.596968779297148</v>
+        <v>9.580969317456461</v>
       </c>
       <c r="P3" t="n">
-        <v>348.5439992548125</v>
+        <v>348.5106439696936</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18654,28 +18714,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3196999319735923</v>
+        <v>-0.3187082292769366</v>
       </c>
       <c r="J4" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K4" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04496606389922631</v>
+        <v>0.04487506675472441</v>
       </c>
       <c r="M4" t="n">
-        <v>7.41055848383809</v>
+        <v>7.399903623496915</v>
       </c>
       <c r="N4" t="n">
-        <v>100.1746424774061</v>
+        <v>99.97761550225947</v>
       </c>
       <c r="O4" t="n">
-        <v>10.00872831469644</v>
+        <v>9.998880712472745</v>
       </c>
       <c r="P4" t="n">
-        <v>350.911554125989</v>
+        <v>350.9001618280381</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18713,7 +18773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E544"/>
+  <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32689,6 +32749,56 @@
         </is>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:17+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-45.360007957240214,170.8632712048287</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-45.36051974386067,170.8627028418531</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-45.35989906127826,170.86293211436535</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-45.36053897548754,170.86276821780325</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-45.36113098804395,170.8624674434102</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E546"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11541,6 +11541,90 @@
         <v>344.91</v>
       </c>
       <c r="E546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>335.5411111111111</v>
+      </c>
+      <c r="C547" t="n">
+        <v>338.62</v>
+      </c>
+      <c r="D547" t="n">
+        <v>353.88</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>332.3344444444444</v>
+      </c>
+      <c r="C548" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="D548" t="n">
+        <v>347.6799999999999</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>336.3033333333333</v>
+      </c>
+      <c r="C549" t="n">
+        <v>331.93</v>
+      </c>
+      <c r="D549" t="n">
+        <v>345.54</v>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>335.6433333333333</v>
+      </c>
+      <c r="C550" t="n">
+        <v>343.79</v>
+      </c>
+      <c r="D550" t="n">
+        <v>345.04</v>
+      </c>
+      <c r="E550" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11557,7 +11641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18385,6 +18469,46 @@
       </c>
       <c r="B682" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -18558,28 +18682,28 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3459708433730784</v>
+        <v>-0.339073350700212</v>
       </c>
       <c r="J2" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K2" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05460423506593526</v>
+        <v>0.05333843739059907</v>
       </c>
       <c r="M2" t="n">
-        <v>7.238310945010472</v>
+        <v>7.212042878828395</v>
       </c>
       <c r="N2" t="n">
-        <v>93.23224761346576</v>
+        <v>92.62807514471876</v>
       </c>
       <c r="O2" t="n">
-        <v>9.655684730430346</v>
+        <v>9.624348037385117</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9583734822682</v>
+        <v>339.8781195434434</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18636,28 +18760,28 @@
         <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3791132550218773</v>
+        <v>-0.3788691206756205</v>
       </c>
       <c r="J3" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K3" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06780519024565335</v>
+        <v>0.06868216377417435</v>
       </c>
       <c r="M3" t="n">
-        <v>7.555975647286338</v>
+        <v>7.52237476929771</v>
       </c>
       <c r="N3" t="n">
-        <v>91.7949730620421</v>
+        <v>91.19132403939972</v>
       </c>
       <c r="O3" t="n">
-        <v>9.580969317456461</v>
+        <v>9.54941485324623</v>
       </c>
       <c r="P3" t="n">
-        <v>348.5106439696936</v>
+        <v>348.5078156328461</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18714,28 +18838,28 @@
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3187082292769366</v>
+        <v>-0.3094497226398429</v>
       </c>
       <c r="J4" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04487506675472441</v>
+        <v>0.04296179874498862</v>
       </c>
       <c r="M4" t="n">
-        <v>7.399903623496915</v>
+        <v>7.383329597573049</v>
       </c>
       <c r="N4" t="n">
-        <v>99.97761550225947</v>
+        <v>99.49295730567772</v>
       </c>
       <c r="O4" t="n">
-        <v>9.998880712472745</v>
+        <v>9.974615647015062</v>
       </c>
       <c r="P4" t="n">
-        <v>350.9001618280381</v>
+        <v>350.7934222586633</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18773,7 +18897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E546"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32799,6 +32923,114 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-45.35992667702939,170.8630181064658</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-45.3605176994153,170.86269589197997</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-45.36115965584128,170.86257447112703</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-45.35991471559973,170.86298085998945</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-45.36052521881404,170.8627214533802</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-45.36113984087481,170.86250049432093</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-45.359929520250354,170.8630269599272</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-45.360494517454825,170.86261708752252</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-45.361133001504506,170.8624749604034</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-45.35992705833603,170.86301929381042</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-45.36053561428693,170.862756791733</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-45.361131403519984,170.86246899453573</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326.1488888888889</v>
+        <v>326.15</v>
       </c>
       <c r="C2" t="n">
         <v>332.42</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.5944444444444</v>
+        <v>335.59</v>
       </c>
       <c r="C3" t="n">
         <v>346.62</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.7855555555556</v>
+        <v>345.79</v>
       </c>
       <c r="C4" t="n">
         <v>354.41</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.2422222222222</v>
+        <v>345.24</v>
       </c>
       <c r="C5" t="n">
         <v>348.99</v>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338.3511111111111</v>
+        <v>338.35</v>
       </c>
       <c r="C6" t="n">
         <v>353.34</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.8711111111111</v>
+        <v>332.87</v>
       </c>
       <c r="C7" t="n">
         <v>343.83</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.1411111111111</v>
+        <v>333.14</v>
       </c>
       <c r="C8" t="n">
         <v>352.98</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.1244444444445</v>
+        <v>343.12</v>
       </c>
       <c r="C9" t="n">
         <v>341.07</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.5466666666667</v>
+        <v>345.55</v>
       </c>
       <c r="C10" t="n">
         <v>352.22</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.4088888888889</v>
+        <v>358.41</v>
       </c>
       <c r="C11" t="n">
         <v>367.57</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>344.4933333333333</v>
+        <v>344.49</v>
       </c>
       <c r="C12" t="n">
         <v>358.3</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.7566666666667</v>
+        <v>342.76</v>
       </c>
       <c r="C13" t="n">
         <v>346.09</v>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.7866666666667</v>
+        <v>340.79</v>
       </c>
       <c r="C14" t="n">
         <v>344.41</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>331.6633333333333</v>
+        <v>331.66</v>
       </c>
       <c r="C15" t="n">
         <v>341.02</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>349.1511111111111</v>
+        <v>349.15</v>
       </c>
       <c r="C17" t="n">
         <v>359.42</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>338.3755555555555</v>
+        <v>338.38</v>
       </c>
       <c r="C18" t="n">
         <v>338.38</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>337.1411111111111</v>
+        <v>337.14</v>
       </c>
       <c r="C19" t="n">
         <v>347.57</v>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.9922222222222</v>
+        <v>333.99</v>
       </c>
       <c r="C20" t="n">
         <v>344.01</v>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>333.8055555555555</v>
+        <v>333.81</v>
       </c>
       <c r="C21" t="n">
         <v>337.87</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>348.9711111111111</v>
+        <v>348.97</v>
       </c>
       <c r="C22" t="n">
         <v>353.71</v>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.6855555555555</v>
+        <v>347.69</v>
       </c>
       <c r="C23" t="n">
         <v>351.16</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.0722222222223</v>
+        <v>340.07</v>
       </c>
       <c r="C25" t="n">
         <v>351.8</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>338.2288888888889</v>
+        <v>338.23</v>
       </c>
       <c r="C26" t="n">
         <v>348.5</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>345.8322222222222</v>
+        <v>345.83</v>
       </c>
       <c r="C27" t="n">
         <v>352.16</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>321.0433333333333</v>
+        <v>321.04</v>
       </c>
       <c r="C28" t="n">
         <v>331.46</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>338.5122222222222</v>
+        <v>338.51</v>
       </c>
       <c r="C30" t="n">
         <v>350.22</v>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>333.1622222222222</v>
+        <v>333.16</v>
       </c>
       <c r="C31" t="n">
         <v>338.3</v>
       </c>
       <c r="D31" t="n">
-        <v>341.8200000000001</v>
+        <v>341.82</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>346.7422222222222</v>
+        <v>346.74</v>
       </c>
       <c r="C32" t="n">
         <v>352.07</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355.2411111111111</v>
+        <v>355.24</v>
       </c>
       <c r="C33" t="n">
         <v>361.59</v>
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.1744444444445</v>
+        <v>327.17</v>
       </c>
       <c r="C36" t="n">
         <v>332.71</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.2011111111111</v>
+        <v>331.2</v>
       </c>
       <c r="C37" t="n">
         <v>341.89</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>345.8988888888889</v>
+        <v>345.9</v>
       </c>
       <c r="C38" t="n">
         <v>362.27</v>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>349.3055555555555</v>
+        <v>349.31</v>
       </c>
       <c r="C39" t="n">
         <v>352.35</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>329.6088888888889</v>
+        <v>329.61</v>
       </c>
       <c r="C40" t="n">
         <v>346.12</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>329.4377777777778</v>
+        <v>329.44</v>
       </c>
       <c r="C41" t="n">
         <v>342.16</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.1222222222222</v>
+        <v>341.12</v>
       </c>
       <c r="C44" t="n">
         <v>355.66</v>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>337.7144444444444</v>
+        <v>337.71</v>
       </c>
       <c r="C45" t="n">
         <v>351.94</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>346.0122222222222</v>
+        <v>346.01</v>
       </c>
       <c r="C46" t="n">
         <v>349.29</v>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>345.0366666666667</v>
+        <v>345.04</v>
       </c>
       <c r="C47" t="n">
         <v>352.01</v>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>347.3177777777778</v>
+        <v>347.32</v>
       </c>
       <c r="C48" t="n">
         <v>354.2</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>340.8311111111111</v>
+        <v>340.83</v>
       </c>
       <c r="C49" t="n">
         <v>345.94</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>337.5466666666667</v>
+        <v>337.55</v>
       </c>
       <c r="C50" t="n">
         <v>331.24</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>358.8877777777778</v>
+        <v>358.89</v>
       </c>
       <c r="C51" t="n">
         <v>358.08</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>337.5255555555556</v>
+        <v>337.53</v>
       </c>
       <c r="C52" t="n">
         <v>342.89</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>343.8966666666667</v>
+        <v>343.9</v>
       </c>
       <c r="C53" t="n">
         <v>354.48</v>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>335.5233333333333</v>
+        <v>335.52</v>
       </c>
       <c r="C54" t="n">
         <v>342.63</v>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>343.9588888888889</v>
+        <v>343.96</v>
       </c>
       <c r="C55" t="n">
         <v>346.66</v>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>332.7077777777778</v>
+        <v>332.71</v>
       </c>
       <c r="C57" t="n">
         <v>330.14</v>
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>340.8955555555555</v>
+        <v>340.9</v>
       </c>
       <c r="C58" t="n">
         <v>349.22</v>
       </c>
       <c r="D58" t="n">
-        <v>357.9299999999999</v>
+        <v>357.93</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>336.4366666666667</v>
+        <v>336.44</v>
       </c>
       <c r="C59" t="n">
         <v>346.47</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>328.4111111111111</v>
+        <v>328.41</v>
       </c>
       <c r="C60" t="n">
         <v>334.25</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>352.1722222222222</v>
+        <v>352.17</v>
       </c>
       <c r="C61" t="n">
         <v>359.66</v>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>327.8466666666667</v>
+        <v>327.85</v>
       </c>
       <c r="C62" t="n">
         <v>340.23</v>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>337.0644444444445</v>
+        <v>337.06</v>
       </c>
       <c r="C63" t="n">
         <v>341.01</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>315.3866666666667</v>
+        <v>315.39</v>
       </c>
       <c r="C64" t="n">
         <v>328.08</v>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>341.7144444444444</v>
+        <v>341.71</v>
       </c>
       <c r="C65" t="n">
         <v>348.3</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>336.1144444444445</v>
+        <v>336.11</v>
       </c>
       <c r="C67" t="n">
         <v>347.81</v>
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>327.2411111111111</v>
+        <v>327.24</v>
       </c>
       <c r="C68" t="n">
         <v>341.26</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>335.3788888888889</v>
+        <v>335.38</v>
       </c>
       <c r="C69" t="n">
         <v>340.58</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>325.5911111111111</v>
+        <v>325.59</v>
       </c>
       <c r="C70" t="n">
         <v>337.88</v>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>326.5544444444445</v>
+        <v>326.55</v>
       </c>
       <c r="C71" t="n">
         <v>334.88</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>331.0222222222222</v>
+        <v>331.02</v>
       </c>
       <c r="C72" t="n">
         <v>349.86</v>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>340.1922222222223</v>
+        <v>340.19</v>
       </c>
       <c r="C73" t="n">
         <v>349.56</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>345.1133333333333</v>
+        <v>345.11</v>
       </c>
       <c r="C74" t="n">
         <v>350.93</v>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>353.2444444444445</v>
+        <v>353.24</v>
       </c>
       <c r="C75" t="n">
         <v>358.63</v>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>336.4122222222222</v>
+        <v>336.41</v>
       </c>
       <c r="C76" t="n">
         <v>335.84</v>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>337.7366666666667</v>
+        <v>337.74</v>
       </c>
       <c r="C78" t="n">
         <v>346.6</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>354.6377777777778</v>
+        <v>354.64</v>
       </c>
       <c r="C79" t="n">
         <v>357.56</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>339.8677777777777</v>
+        <v>339.87</v>
       </c>
       <c r="C80" t="n">
         <v>343.46</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>347.6655555555556</v>
+        <v>347.67</v>
       </c>
       <c r="C81" t="n">
         <v>347.66</v>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>332.3311111111111</v>
+        <v>332.33</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>336.9711111111111</v>
+        <v>336.97</v>
       </c>
       <c r="C84" t="n">
         <v>349.66</v>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>334.9844444444445</v>
+        <v>334.98</v>
       </c>
       <c r="C85" t="n">
         <v>342.39</v>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>338.1122222222222</v>
+        <v>338.11</v>
       </c>
       <c r="C86" t="n">
         <v>348.31</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>324.4111111111111</v>
+        <v>324.41</v>
       </c>
       <c r="C88" t="n">
         <v>331.16</v>
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>360.0977777777778</v>
+        <v>360.1</v>
       </c>
       <c r="C89" t="n">
         <v>361.19</v>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>342.6866666666667</v>
+        <v>342.69</v>
       </c>
       <c r="C90" t="n">
         <v>345.67</v>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>338.1622222222222</v>
+        <v>338.16</v>
       </c>
       <c r="C91" t="n">
         <v>339.14</v>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>338.1766666666667</v>
+        <v>338.18</v>
       </c>
       <c r="C92" t="n">
         <v>336.46</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>340.6722222222222</v>
+        <v>340.67</v>
       </c>
       <c r="C93" t="n">
         <v>348.01</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>331.2544444444445</v>
+        <v>331.25</v>
       </c>
       <c r="C94" t="n">
         <v>336.12</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>335.5377777777778</v>
+        <v>335.54</v>
       </c>
       <c r="C95" t="n">
         <v>351.46</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>320.3911111111111</v>
+        <v>320.39</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>319.6588888888889</v>
+        <v>319.66</v>
       </c>
       <c r="C98" t="n">
         <v>333.8</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>330.1733333333333</v>
+        <v>330.17</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>333.6877777777778</v>
+        <v>333.69</v>
       </c>
       <c r="C100" t="n">
         <v>334.92</v>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>351.6322222222223</v>
+        <v>351.63</v>
       </c>
       <c r="C101" t="n">
         <v>355.94</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>337.4055555555556</v>
+        <v>337.41</v>
       </c>
       <c r="C102" t="n">
         <v>343.46</v>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>333.5633333333333</v>
+        <v>333.56</v>
       </c>
       <c r="C103" t="n">
         <v>342.79</v>
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>332.5633333333333</v>
+        <v>332.56</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>334.4944444444445</v>
+        <v>334.49</v>
       </c>
       <c r="C105" t="n">
         <v>343.97</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>343.3211111111111</v>
+        <v>343.32</v>
       </c>
       <c r="C106" t="n">
         <v>347.63</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>340.5055555555556</v>
+        <v>340.51</v>
       </c>
       <c r="C107" t="n">
         <v>344.3</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>334.1422222222222</v>
+        <v>334.14</v>
       </c>
       <c r="C109" t="n">
         <v>355.07</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>336.0977777777778</v>
+        <v>336.1</v>
       </c>
       <c r="C110" t="n">
         <v>355.15</v>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>340.1666666666667</v>
+        <v>340.17</v>
       </c>
       <c r="C111" t="n">
         <v>352.26</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>349.0011111111111</v>
+        <v>349</v>
       </c>
       <c r="C112" t="n">
         <v>350.58</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>349.9888888888889</v>
+        <v>349.99</v>
       </c>
       <c r="C114" t="n">
         <v>357.17</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>330.9166666666667</v>
+        <v>330.92</v>
       </c>
       <c r="C115" t="n">
         <v>329.4</v>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>331.7111111111111</v>
+        <v>331.71</v>
       </c>
       <c r="C116" t="n">
         <v>339.04</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>324.7944444444445</v>
+        <v>324.79</v>
       </c>
       <c r="C117" t="n">
         <v>326.65</v>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>357.2555555555556</v>
+        <v>357.26</v>
       </c>
       <c r="C118" t="n">
         <v>362.89</v>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>326.6822222222222</v>
+        <v>326.68</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>332.1411111111111</v>
+        <v>332.14</v>
       </c>
       <c r="C120" t="n">
         <v>347.5</v>
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>331.0322222222222</v>
+        <v>331.03</v>
       </c>
       <c r="C122" t="n">
         <v>343.94</v>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>336.9711111111111</v>
+        <v>336.97</v>
       </c>
       <c r="C123" t="n">
         <v>333.99</v>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>336.5611111111111</v>
+        <v>336.56</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>351.6844444444445</v>
+        <v>351.68</v>
       </c>
       <c r="C125" t="n">
         <v>354.94</v>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>341.6366666666667</v>
+        <v>341.64</v>
       </c>
       <c r="C126" t="n">
         <v>353.49</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>335.6244444444445</v>
+        <v>335.62</v>
       </c>
       <c r="C127" t="n">
         <v>336.15</v>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>345.0088888888889</v>
+        <v>345.01</v>
       </c>
       <c r="C128" t="n">
         <v>348.68</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>342.3922222222222</v>
+        <v>342.39</v>
       </c>
       <c r="C129" t="n">
         <v>352.77</v>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>333.4066666666667</v>
+        <v>333.41</v>
       </c>
       <c r="C130" t="n">
         <v>335.24</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>355.0888888888889</v>
+        <v>355.09</v>
       </c>
       <c r="C133" t="n">
         <v>359.31</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>327.7933333333333</v>
+        <v>327.79</v>
       </c>
       <c r="C134" t="n">
         <v>329.82</v>
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>339.4222222222222</v>
+        <v>339.42</v>
       </c>
       <c r="C135" t="n">
         <v>350.19</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>343.4011111111111</v>
+        <v>343.4</v>
       </c>
       <c r="C137" t="n">
         <v>350.78</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>336.2966666666667</v>
+        <v>336.3</v>
       </c>
       <c r="C138" t="n">
         <v>336.39</v>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>339.5722222222223</v>
+        <v>339.57</v>
       </c>
       <c r="C139" t="n">
         <v>354.84</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>325.0222222222222</v>
+        <v>325.02</v>
       </c>
       <c r="C140" t="n">
         <v>332.02</v>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>329.8944444444444</v>
+        <v>329.89</v>
       </c>
       <c r="C141" t="n">
         <v>335.53</v>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>346.3711111111111</v>
+        <v>346.37</v>
       </c>
       <c r="C142" t="n">
         <v>360.2</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>352.4077777777778</v>
+        <v>352.41</v>
       </c>
       <c r="C143" t="n">
         <v>356.31</v>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>335.4055555555556</v>
+        <v>335.41</v>
       </c>
       <c r="C145" t="n">
         <v>340.83</v>
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>339.7733333333333</v>
+        <v>339.77</v>
       </c>
       <c r="C146" t="n">
         <v>344.76</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>333.2366666666667</v>
+        <v>333.24</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>355.8644444444445</v>
+        <v>355.86</v>
       </c>
       <c r="C149" t="n">
         <v>359.82</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>347.7055555555555</v>
+        <v>347.71</v>
       </c>
       <c r="C150" t="n">
         <v>349.75</v>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>349.2933333333333</v>
+        <v>349.29</v>
       </c>
       <c r="C151" t="n">
         <v>348</v>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>326.8911111111111</v>
+        <v>326.89</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>330.7222222222222</v>
+        <v>330.72</v>
       </c>
       <c r="C154" t="n">
         <v>329.87</v>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>337.1544444444444</v>
+        <v>337.15</v>
       </c>
       <c r="C155" t="n">
         <v>342.62</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>331.9288888888889</v>
+        <v>331.93</v>
       </c>
       <c r="C156" t="n">
         <v>342.27</v>
@@ -3639,7 +3639,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>324.5866666666667</v>
+        <v>324.59</v>
       </c>
       <c r="C157" t="n">
         <v>346.59</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>322.6433333333333</v>
+        <v>322.64</v>
       </c>
       <c r="C158" t="n">
         <v>335.8</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>334.5933333333333</v>
+        <v>334.59</v>
       </c>
       <c r="C159" t="n">
         <v>340.57</v>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>327.1222222222222</v>
+        <v>327.12</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>329.9622222222222</v>
+        <v>329.96</v>
       </c>
       <c r="C161" t="n">
         <v>338.3</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>330.0111111111111</v>
+        <v>330.01</v>
       </c>
       <c r="C162" t="n">
         <v>337.68</v>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>330.3311111111111</v>
+        <v>330.33</v>
       </c>
       <c r="C163" t="n">
         <v>344.71</v>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>322.7988888888889</v>
+        <v>322.8</v>
       </c>
       <c r="C164" t="n">
         <v>327.78</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>325.6677777777778</v>
+        <v>325.67</v>
       </c>
       <c r="C166" t="n">
         <v>335.52</v>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>332.5422222222222</v>
+        <v>332.54</v>
       </c>
       <c r="C167" t="n">
         <v>343.03</v>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>334.8511111111111</v>
+        <v>334.85</v>
       </c>
       <c r="C168" t="n">
         <v>340.71</v>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>341.0355555555556</v>
+        <v>341.04</v>
       </c>
       <c r="C170" t="n">
         <v>360.86</v>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>317.2211111111111</v>
+        <v>317.22</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>332.0277777777778</v>
+        <v>332.03</v>
       </c>
       <c r="C172" t="n">
         <v>333.26</v>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>333.5088888888889</v>
+        <v>333.51</v>
       </c>
       <c r="C173" t="n">
         <v>343.44</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>319.8355555555555</v>
+        <v>319.84</v>
       </c>
       <c r="C174" t="n">
         <v>315.52</v>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>336.0488888888889</v>
+        <v>336.05</v>
       </c>
       <c r="C176" t="n">
         <v>345.63</v>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>319.4688888888889</v>
+        <v>319.47</v>
       </c>
       <c r="C177" t="n">
         <v>332.46</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>334.6344444444445</v>
+        <v>334.63</v>
       </c>
       <c r="C179" t="n">
         <v>351.97</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>330.0755555555555</v>
+        <v>330.08</v>
       </c>
       <c r="C180" t="n">
         <v>351.85</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>341.7533333333333</v>
+        <v>341.75</v>
       </c>
       <c r="C181" t="n">
         <v>346.75</v>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>335.6755555555555</v>
+        <v>335.68</v>
       </c>
       <c r="C182" t="n">
         <v>341.75</v>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>333.5522222222222</v>
+        <v>333.55</v>
       </c>
       <c r="C184" t="n">
         <v>352.35</v>
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>331.6977777777778</v>
+        <v>331.7</v>
       </c>
       <c r="C185" t="n">
         <v>343.27</v>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>316.8788888888889</v>
+        <v>316.88</v>
       </c>
       <c r="C186" t="n">
         <v>326.87</v>
@@ -4241,7 +4241,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>329.8388888888889</v>
+        <v>329.84</v>
       </c>
       <c r="C187" t="n">
         <v>340.23</v>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>347.3888888888889</v>
+        <v>347.39</v>
       </c>
       <c r="C189" t="n">
         <v>358.32</v>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>329.6822222222222</v>
+        <v>329.68</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>328.1133333333333</v>
+        <v>328.11</v>
       </c>
       <c r="C191" t="n">
         <v>337.2</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>336.0633333333333</v>
+        <v>336.06</v>
       </c>
       <c r="C192" t="n">
         <v>337.74</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>342.1444444444444</v>
+        <v>342.14</v>
       </c>
       <c r="C193" t="n">
         <v>347.2</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>338.5377777777778</v>
+        <v>338.54</v>
       </c>
       <c r="C194" t="n">
         <v>341.92</v>
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>328.0277777777778</v>
+        <v>328.03</v>
       </c>
       <c r="C196" t="n">
         <v>334.82</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>345.6355555555555</v>
+        <v>345.64</v>
       </c>
       <c r="C197" t="n">
         <v>346.64</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>342.2122222222222</v>
+        <v>342.21</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>332.8977777777778</v>
+        <v>332.9</v>
       </c>
       <c r="C199" t="n">
         <v>332.78</v>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>337.0333333333333</v>
+        <v>337.03</v>
       </c>
       <c r="C200" t="n">
         <v>344.94</v>
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>340.2655555555555</v>
+        <v>340.27</v>
       </c>
       <c r="C201" t="n">
         <v>345.67</v>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>331.2822222222222</v>
+        <v>331.28</v>
       </c>
       <c r="C203" t="n">
         <v>327.36</v>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>333.8477777777778</v>
+        <v>333.85</v>
       </c>
       <c r="C204" t="n">
         <v>339.21</v>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>335.1733333333333</v>
+        <v>335.17</v>
       </c>
       <c r="C205" t="n">
         <v>344.91</v>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>342.6833333333333</v>
+        <v>342.68</v>
       </c>
       <c r="C206" t="n">
         <v>345.27</v>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>340.5233333333333</v>
+        <v>340.52</v>
       </c>
       <c r="C207" t="n">
         <v>345.75</v>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>329.9466666666667</v>
+        <v>329.95</v>
       </c>
       <c r="C208" t="n">
         <v>340.56</v>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>337.1366666666667</v>
+        <v>337.14</v>
       </c>
       <c r="C209" t="n">
         <v>343.58</v>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>339.8255555555555</v>
+        <v>339.83</v>
       </c>
       <c r="C210" t="n">
         <v>348.9</v>
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>331.7755555555556</v>
+        <v>331.78</v>
       </c>
       <c r="C211" t="n">
         <v>334.59</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>337.8944444444444</v>
+        <v>337.89</v>
       </c>
       <c r="C212" t="n">
         <v>346.97</v>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>322.1577777777778</v>
+        <v>322.16</v>
       </c>
       <c r="C213" t="n">
         <v>329.82</v>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>331.1533333333333</v>
+        <v>331.15</v>
       </c>
       <c r="C214" t="n">
         <v>340.19</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>340.2688888888889</v>
+        <v>340.27</v>
       </c>
       <c r="C215" t="n">
         <v>347.34</v>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>333.9244444444445</v>
+        <v>333.92</v>
       </c>
       <c r="C216" t="n">
         <v>342.97</v>
@@ -4849,7 +4849,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>316.1011111111111</v>
+        <v>316.1</v>
       </c>
       <c r="C217" t="n">
         <v>329.17</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>329.8455555555556</v>
+        <v>329.85</v>
       </c>
       <c r="C218" t="n">
         <v>335.81</v>
@@ -4891,7 +4891,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>340.5066666666667</v>
+        <v>340.51</v>
       </c>
       <c r="C219" t="n">
         <v>349.32</v>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>328.6144444444445</v>
+        <v>328.61</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>337.9433333333333</v>
+        <v>337.94</v>
       </c>
       <c r="C223" t="n">
         <v>354.77</v>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>335.3488888888889</v>
+        <v>335.35</v>
       </c>
       <c r="C224" t="n">
         <v>339.48</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>336.2811111111111</v>
+        <v>336.28</v>
       </c>
       <c r="C225" t="n">
         <v>352.56</v>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>340.3033333333333</v>
+        <v>340.3</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>321.2644444444445</v>
+        <v>321.26</v>
       </c>
       <c r="C231" t="n">
         <v>329</v>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>329.9133333333333</v>
+        <v>329.91</v>
       </c>
       <c r="C233" t="n">
         <v>352.32</v>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>346.5833333333333</v>
+        <v>346.58</v>
       </c>
       <c r="C234" t="n">
         <v>359.48</v>
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>333.6388888888889</v>
+        <v>333.64</v>
       </c>
       <c r="C236" t="n">
         <v>355.04</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>348.6377777777778</v>
+        <v>348.64</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>343.1755555555555</v>
+        <v>343.18</v>
       </c>
       <c r="C238" t="n">
         <v>343.16</v>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>337.8633333333333</v>
+        <v>337.86</v>
       </c>
       <c r="C240" t="n">
         <v>345.38</v>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>328.6722222222222</v>
+        <v>328.67</v>
       </c>
       <c r="C241" t="n">
         <v>327.02</v>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>340.1811111111111</v>
+        <v>340.18</v>
       </c>
       <c r="C243" t="n">
         <v>348.91</v>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>335.2566666666667</v>
+        <v>335.26</v>
       </c>
       <c r="C244" t="n">
         <v>336.17</v>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>340.8133333333333</v>
+        <v>340.81</v>
       </c>
       <c r="C245" t="n">
         <v>341.62</v>
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>341.1477777777778</v>
+        <v>341.15</v>
       </c>
       <c r="C246" t="n">
         <v>338.54</v>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>352.1366666666667</v>
+        <v>352.14</v>
       </c>
       <c r="C247" t="n">
         <v>353.48</v>
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>341.8488888888889</v>
+        <v>341.85</v>
       </c>
       <c r="C248" t="n">
         <v>333.85</v>
@@ -5481,7 +5481,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>334.0911111111111</v>
+        <v>334.09</v>
       </c>
       <c r="C249" t="n">
         <v>343.28</v>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>341.8211111111111</v>
+        <v>341.82</v>
       </c>
       <c r="C250" t="n">
         <v>355.51</v>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>330.0722222222223</v>
+        <v>330.07</v>
       </c>
       <c r="C252" t="n">
         <v>338.98</v>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>335.2422222222222</v>
+        <v>335.24</v>
       </c>
       <c r="C253" t="n">
         <v>338.84</v>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>343.4466666666667</v>
+        <v>343.45</v>
       </c>
       <c r="C254" t="n">
         <v>342.55</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>303.0666666666667</v>
+        <v>303.07</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>328.5955555555556</v>
+        <v>328.6</v>
       </c>
       <c r="C257" t="n">
         <v>342.97</v>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>331.1155555555555</v>
+        <v>331.12</v>
       </c>
       <c r="C258" t="n">
         <v>340.22</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>334.3777777777778</v>
+        <v>334.38</v>
       </c>
       <c r="C259" t="n">
         <v>346.75</v>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>336.1922222222223</v>
+        <v>336.19</v>
       </c>
       <c r="C260" t="n">
         <v>358.39</v>
@@ -5729,7 +5729,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>330.2677777777778</v>
+        <v>330.27</v>
       </c>
       <c r="C261" t="n">
         <v>342.33</v>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>313.8244444444445</v>
+        <v>313.82</v>
       </c>
       <c r="C262" t="n">
         <v>325.33</v>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>336.9211111111111</v>
+        <v>336.92</v>
       </c>
       <c r="C263" t="n">
         <v>343.75</v>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>337.8544444444445</v>
+        <v>337.85</v>
       </c>
       <c r="C264" t="n">
         <v>352.06</v>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>335.2066666666667</v>
+        <v>335.21</v>
       </c>
       <c r="C265" t="n">
         <v>340.04</v>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>328.6188888888889</v>
+        <v>328.62</v>
       </c>
       <c r="C266" t="n">
         <v>341.22</v>
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>326.2555555555556</v>
+        <v>326.26</v>
       </c>
       <c r="C268" t="n">
         <v>344.33</v>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>326.3811111111111</v>
+        <v>326.38</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>328.2377777777777</v>
+        <v>328.24</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>340.5011111111111</v>
+        <v>340.5</v>
       </c>
       <c r="C272" t="n">
         <v>356.69</v>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>332.1422222222222</v>
+        <v>332.14</v>
       </c>
       <c r="C273" t="n">
         <v>336.4</v>
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>336.5188888888889</v>
+        <v>336.52</v>
       </c>
       <c r="C274" t="n">
         <v>332.89</v>
@@ -6009,7 +6009,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>297.9522222222222</v>
+        <v>297.95</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>344.9055555555556</v>
+        <v>344.91</v>
       </c>
       <c r="C277" t="n">
         <v>345.11</v>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>326.4911111111111</v>
+        <v>326.49</v>
       </c>
       <c r="C278" t="n">
         <v>342.17</v>
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>319.0544444444445</v>
+        <v>319.05</v>
       </c>
       <c r="C280" t="n">
         <v>336.36</v>
@@ -6129,7 +6129,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>324.0455555555556</v>
+        <v>324.05</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>332.0211111111111</v>
+        <v>332.02</v>
       </c>
       <c r="C282" t="n">
         <v>357.66</v>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>337.4722222222222</v>
+        <v>337.47</v>
       </c>
       <c r="C284" t="n">
         <v>350.37</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>343.7155555555556</v>
+        <v>343.72</v>
       </c>
       <c r="C286" t="n">
         <v>345.19</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>342.7133333333333</v>
+        <v>342.71</v>
       </c>
       <c r="C287" t="n">
         <v>348.77</v>
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>325.1588888888889</v>
+        <v>325.16</v>
       </c>
       <c r="C288" t="n">
         <v>334.21</v>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>329.2911111111111</v>
+        <v>329.29</v>
       </c>
       <c r="C289" t="n">
         <v>340.92</v>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>315.3511111111111</v>
+        <v>315.35</v>
       </c>
       <c r="C290" t="n">
         <v>327.87</v>
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>331.2488888888889</v>
+        <v>331.25</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>325.7611111111111</v>
+        <v>325.76</v>
       </c>
       <c r="C292" t="n">
         <v>349.25</v>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>306.6122222222222</v>
+        <v>306.61</v>
       </c>
       <c r="C294" t="n">
         <v>313.5</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>338.9511111111111</v>
+        <v>338.95</v>
       </c>
       <c r="C295" t="n">
         <v>349.51</v>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>349.5722222222223</v>
+        <v>349.57</v>
       </c>
       <c r="C296" t="n">
         <v>349.31</v>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>349.4455555555556</v>
+        <v>349.45</v>
       </c>
       <c r="C297" t="n">
         <v>346.13</v>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>315.3666666666667</v>
+        <v>315.37</v>
       </c>
       <c r="C298" t="n">
         <v>338.01</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>320.2666666666667</v>
+        <v>320.27</v>
       </c>
       <c r="C299" t="n">
         <v>328.82</v>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>341.1444444444444</v>
+        <v>341.14</v>
       </c>
       <c r="C300" t="n">
         <v>338.61</v>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>313.5188888888889</v>
+        <v>313.52</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>327.7677777777778</v>
+        <v>327.77</v>
       </c>
       <c r="C302" t="n">
         <v>337.13</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>320.3822222222223</v>
+        <v>320.38</v>
       </c>
       <c r="C303" t="n">
         <v>327.61</v>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>314.9311111111111</v>
+        <v>314.93</v>
       </c>
       <c r="C304" t="n">
         <v>326.95</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>324.9311111111111</v>
+        <v>324.93</v>
       </c>
       <c r="C306" t="n">
         <v>334.99</v>
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>329.3111111111111</v>
+        <v>329.31</v>
       </c>
       <c r="C307" t="n">
         <v>329.96</v>
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>316.5566666666667</v>
+        <v>316.56</v>
       </c>
       <c r="C308" t="n">
         <v>326.6</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>347.5522222222222</v>
+        <v>347.55</v>
       </c>
       <c r="C309" t="n">
         <v>352.14</v>
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>348.8322222222222</v>
+        <v>348.83</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr"/>
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>322.0855555555555</v>
+        <v>322.09</v>
       </c>
       <c r="C311" t="n">
         <v>335.31</v>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>335.0377777777778</v>
+        <v>335.04</v>
       </c>
       <c r="C312" t="n">
         <v>337.8</v>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>326.4588888888889</v>
+        <v>326.46</v>
       </c>
       <c r="C313" t="n">
         <v>334.18</v>
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>344.7466666666667</v>
+        <v>344.75</v>
       </c>
       <c r="C314" t="n">
         <v>352.64</v>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>330.9555555555555</v>
+        <v>330.96</v>
       </c>
       <c r="C315" t="n">
         <v>347.4</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>335.5788888888889</v>
+        <v>335.58</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
@@ -6889,7 +6889,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>332.3955555555555</v>
+        <v>332.4</v>
       </c>
       <c r="C319" t="n">
         <v>344.83</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>301.0377777777778</v>
+        <v>301.04</v>
       </c>
       <c r="C321" t="n">
         <v>323.5</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>320.0611111111111</v>
+        <v>320.06</v>
       </c>
       <c r="C322" t="n">
         <v>333.34</v>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>326.8144444444445</v>
+        <v>326.81</v>
       </c>
       <c r="C323" t="n">
         <v>330.69</v>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>321.4644444444444</v>
+        <v>321.46</v>
       </c>
       <c r="C324" t="n">
         <v>339.42</v>
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>333.3322222222222</v>
+        <v>333.33</v>
       </c>
       <c r="C325" t="n">
         <v>347.05</v>
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>338.1277777777778</v>
+        <v>338.13</v>
       </c>
       <c r="C327" t="n">
         <v>346.53</v>
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>326.3711111111111</v>
+        <v>326.37</v>
       </c>
       <c r="C328" t="n">
         <v>320.64</v>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>338.0855555555555</v>
+        <v>338.09</v>
       </c>
       <c r="C330" t="n">
         <v>331.16</v>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>339.7733333333333</v>
+        <v>339.77</v>
       </c>
       <c r="C331" t="n">
         <v>340.29</v>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>332.4488888888889</v>
+        <v>332.45</v>
       </c>
       <c r="C332" t="n">
         <v>348.76</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>337.1966666666667</v>
+        <v>337.2</v>
       </c>
       <c r="C334" t="n">
         <v>329.69</v>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>348.1955555555556</v>
+        <v>348.2</v>
       </c>
       <c r="C335" t="n">
         <v>352.73</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>333.6988888888889</v>
+        <v>333.7</v>
       </c>
       <c r="C336" t="n">
         <v>335.56</v>
@@ -7261,7 +7261,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>332.9611111111111</v>
+        <v>332.96</v>
       </c>
       <c r="C337" t="n">
         <v>328.5</v>
@@ -7286,7 +7286,7 @@
         <v>345.72</v>
       </c>
       <c r="D338" t="n">
-        <v>350.6799999999999</v>
+        <v>350.68</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>333.7822222222222</v>
+        <v>333.78</v>
       </c>
       <c r="C340" t="n">
         <v>344.59</v>
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>331.4477777777778</v>
+        <v>331.45</v>
       </c>
       <c r="C341" t="n">
         <v>325.94</v>
@@ -7364,7 +7364,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>339.3433333333333</v>
+        <v>339.34</v>
       </c>
       <c r="C342" t="n">
         <v>338.09</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>340.1577777777778</v>
+        <v>340.16</v>
       </c>
       <c r="C343" t="n">
         <v>344.31</v>
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>347.8244444444445</v>
+        <v>347.82</v>
       </c>
       <c r="C344" t="n">
         <v>346.13</v>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>342.3366666666667</v>
+        <v>342.34</v>
       </c>
       <c r="C345" t="n">
         <v>341.98</v>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>329.6477777777778</v>
+        <v>329.65</v>
       </c>
       <c r="C347" t="n">
         <v>341.92</v>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>326.2366666666667</v>
+        <v>326.24</v>
       </c>
       <c r="C349" t="n">
         <v>329.19</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>342.4088888888889</v>
+        <v>342.41</v>
       </c>
       <c r="C350" t="n">
         <v>345.65</v>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>337.9411111111111</v>
+        <v>337.94</v>
       </c>
       <c r="C351" t="n">
         <v>345.03</v>
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>335.0466666666667</v>
+        <v>335.05</v>
       </c>
       <c r="C352" t="n">
         <v>346.85</v>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>306.8688888888889</v>
+        <v>306.87</v>
       </c>
       <c r="C353" t="n">
         <v>319.77</v>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>337.5811111111111</v>
+        <v>337.58</v>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="n">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>337.7188888888889</v>
+        <v>337.72</v>
       </c>
       <c r="C356" t="n">
         <v>352.1</v>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>327.0711111111111</v>
+        <v>327.07</v>
       </c>
       <c r="C358" t="n">
         <v>325.12</v>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>341.1922222222223</v>
+        <v>341.19</v>
       </c>
       <c r="C359" t="n">
         <v>345.96</v>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>296.2266666666667</v>
+        <v>296.23</v>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="n">
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>331.6311111111111</v>
+        <v>331.63</v>
       </c>
       <c r="C361" t="n">
         <v>339.3</v>
@@ -7766,7 +7766,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>332.5611111111111</v>
+        <v>332.56</v>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>344.3777777777778</v>
+        <v>344.38</v>
       </c>
       <c r="C363" t="n">
         <v>349.69</v>
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>335.2866666666667</v>
+        <v>335.29</v>
       </c>
       <c r="C366" t="n">
         <v>342.53</v>
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>329.2633333333333</v>
+        <v>329.26</v>
       </c>
       <c r="C368" t="n">
         <v>331.17</v>
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>331.3466666666667</v>
+        <v>331.35</v>
       </c>
       <c r="C369" t="n">
         <v>332.4</v>
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>328.5611111111111</v>
+        <v>328.56</v>
       </c>
       <c r="C370" t="n">
         <v>330.06</v>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>337.8266666666667</v>
+        <v>337.83</v>
       </c>
       <c r="C371" t="n">
         <v>338.41</v>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>345.6877777777778</v>
+        <v>345.69</v>
       </c>
       <c r="C372" t="n">
         <v>351.03</v>
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>334.6477777777778</v>
+        <v>334.65</v>
       </c>
       <c r="C374" t="n">
         <v>349.28</v>
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>330.6833333333333</v>
+        <v>330.68</v>
       </c>
       <c r="C375" t="n">
         <v>330.62</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>328.2133333333333</v>
+        <v>328.21</v>
       </c>
       <c r="C376" t="n">
         <v>334.01</v>
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>319.8511111111111</v>
+        <v>319.85</v>
       </c>
       <c r="C377" t="n">
         <v>333.99</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>345.2866666666667</v>
+        <v>345.29</v>
       </c>
       <c r="C378" t="n">
         <v>357.3</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>337.4055555555556</v>
+        <v>337.41</v>
       </c>
       <c r="C379" t="n">
         <v>357.02</v>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>325.2455555555555</v>
+        <v>325.25</v>
       </c>
       <c r="C380" t="n">
         <v>325.31</v>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>336.7544444444445</v>
+        <v>336.75</v>
       </c>
       <c r="C382" t="n">
         <v>349.65</v>
@@ -8193,7 +8193,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>337.5766666666667</v>
+        <v>337.58</v>
       </c>
       <c r="C383" t="n">
         <v>345.35</v>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>327.1288888888889</v>
+        <v>327.13</v>
       </c>
       <c r="C384" t="n">
         <v>340.89</v>
@@ -8252,13 +8252,13 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>336.2877777777778</v>
+        <v>336.29</v>
       </c>
       <c r="C386" t="n">
         <v>359.49</v>
       </c>
       <c r="D386" t="n">
-        <v>350.8200000000001</v>
+        <v>350.82</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>328.9133333333333</v>
+        <v>328.91</v>
       </c>
       <c r="C388" t="n">
         <v>344.47</v>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>334.1688888888889</v>
+        <v>334.17</v>
       </c>
       <c r="C389" t="n">
         <v>334.53</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>340.3633333333333</v>
+        <v>340.36</v>
       </c>
       <c r="C390" t="n">
         <v>340.45</v>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>322.6811111111111</v>
+        <v>322.68</v>
       </c>
       <c r="C391" t="n">
         <v>334.57</v>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>347.0122222222222</v>
+        <v>347.01</v>
       </c>
       <c r="C392" t="n">
         <v>349.71</v>
@@ -8395,7 +8395,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>335.4588888888889</v>
+        <v>335.46</v>
       </c>
       <c r="C393" t="n">
         <v>330.77</v>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>331.0888888888889</v>
+        <v>331.09</v>
       </c>
       <c r="C394" t="n">
         <v>339.79</v>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>332.1944444444445</v>
+        <v>332.19</v>
       </c>
       <c r="C395" t="n">
         <v>343.33</v>
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>337.1655555555556</v>
+        <v>337.17</v>
       </c>
       <c r="C396" t="n">
         <v>346.91</v>
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>319.8077777777777</v>
+        <v>319.81</v>
       </c>
       <c r="C398" t="n">
         <v>326.76</v>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>340.0844444444444</v>
+        <v>340.08</v>
       </c>
       <c r="C399" t="n">
         <v>346.72</v>
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>333.4777777777778</v>
+        <v>333.48</v>
       </c>
       <c r="C400" t="n">
         <v>339.95</v>
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>328.2477777777778</v>
+        <v>328.25</v>
       </c>
       <c r="C402" t="n">
         <v>326.94</v>
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>331.1277777777778</v>
+        <v>331.13</v>
       </c>
       <c r="C403" t="n">
         <v>337.72</v>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>337.5444444444445</v>
+        <v>337.54</v>
       </c>
       <c r="C404" t="n">
         <v>348.07</v>
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>318.9422222222223</v>
+        <v>318.94</v>
       </c>
       <c r="C405" t="n">
         <v>321.21</v>
@@ -8683,7 +8683,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>335.1355555555555</v>
+        <v>335.14</v>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>325.4022222222222</v>
+        <v>325.4</v>
       </c>
       <c r="C410" t="n">
         <v>335.37</v>
@@ -8761,7 +8761,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>338.2744444444444</v>
+        <v>338.27</v>
       </c>
       <c r="C411" t="n">
         <v>350.12</v>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>328.4622222222222</v>
+        <v>328.46</v>
       </c>
       <c r="C414" t="n">
         <v>339.22</v>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>330.1477777777778</v>
+        <v>330.15</v>
       </c>
       <c r="C415" t="n">
         <v>335</v>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>323.6933333333333</v>
+        <v>323.69</v>
       </c>
       <c r="C416" t="n">
         <v>323.76</v>
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>331.0988888888889</v>
+        <v>331.1</v>
       </c>
       <c r="C418" t="n">
         <v>335.01</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>338.7111111111111</v>
+        <v>338.71</v>
       </c>
       <c r="C419" t="n">
         <v>346.84</v>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>350.2811111111111</v>
+        <v>350.28</v>
       </c>
       <c r="C420" t="n">
         <v>356.14</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>333.2233333333333</v>
+        <v>333.22</v>
       </c>
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr"/>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>332.7833333333333</v>
+        <v>332.78</v>
       </c>
       <c r="C422" t="n">
         <v>334.62</v>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>341.1255555555555</v>
+        <v>341.13</v>
       </c>
       <c r="C423" t="n">
         <v>340.5</v>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>340.1033333333333</v>
+        <v>340.1</v>
       </c>
       <c r="C424" t="n">
         <v>336.48</v>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>333.8488888888889</v>
+        <v>333.85</v>
       </c>
       <c r="C427" t="n">
         <v>344.56</v>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>333.7311111111111</v>
+        <v>333.73</v>
       </c>
       <c r="C428" t="n">
         <v>335.37</v>
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>373.4611111111111</v>
+        <v>373.46</v>
       </c>
       <c r="C429" t="inlineStr"/>
       <c r="D429" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>330.2311111111111</v>
+        <v>330.23</v>
       </c>
       <c r="C431" t="n">
         <v>326.5</v>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>346.7766666666667</v>
+        <v>346.78</v>
       </c>
       <c r="C432" t="n">
         <v>340.9</v>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>341.4011111111111</v>
+        <v>341.4</v>
       </c>
       <c r="C434" t="n">
         <v>353.34</v>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>341.2233333333333</v>
+        <v>341.22</v>
       </c>
       <c r="C435" t="n">
         <v>343.45</v>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>343.3733333333333</v>
+        <v>343.37</v>
       </c>
       <c r="C436" t="n">
         <v>341.41</v>
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>308.9966666666667</v>
+        <v>309</v>
       </c>
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr"/>
@@ -9306,7 +9306,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>332.2022222222222</v>
+        <v>332.2</v>
       </c>
       <c r="C438" t="n">
         <v>342.41</v>
@@ -9325,7 +9325,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>330.5611111111111</v>
+        <v>330.56</v>
       </c>
       <c r="C439" t="n">
         <v>332.99</v>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>329.1022222222222</v>
+        <v>329.1</v>
       </c>
       <c r="C440" t="n">
         <v>334.98</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>329.0555555555555</v>
+        <v>329.06</v>
       </c>
       <c r="C441" t="n">
         <v>317.28</v>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>324.8277777777778</v>
+        <v>324.83</v>
       </c>
       <c r="C442" t="n">
         <v>330.98</v>
@@ -9409,7 +9409,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>320.9777777777778</v>
+        <v>320.98</v>
       </c>
       <c r="C443" t="n">
         <v>326.93</v>
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>331.1166666666667</v>
+        <v>331.12</v>
       </c>
       <c r="C444" t="n">
         <v>351.02</v>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>335.7155555555556</v>
+        <v>335.72</v>
       </c>
       <c r="C445" t="n">
         <v>332.22</v>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>333.9733333333333</v>
+        <v>333.97</v>
       </c>
       <c r="C446" t="inlineStr"/>
       <c r="D446" t="inlineStr"/>
@@ -9489,7 +9489,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>323.2011111111111</v>
+        <v>323.2</v>
       </c>
       <c r="C447" t="n">
         <v>327.69</v>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>324.5255555555556</v>
+        <v>324.53</v>
       </c>
       <c r="C448" t="n">
         <v>344.14</v>
@@ -9531,7 +9531,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>322.3411111111111</v>
+        <v>322.34</v>
       </c>
       <c r="C449" t="n">
         <v>329.74</v>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>343.2833333333333</v>
+        <v>343.28</v>
       </c>
       <c r="C450" t="n">
         <v>352.82</v>
@@ -9590,7 +9590,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>327.6633333333333</v>
+        <v>327.66</v>
       </c>
       <c r="C452" t="n">
         <v>328.11</v>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>331.5644444444445</v>
+        <v>331.56</v>
       </c>
       <c r="C454" t="n">
         <v>339.28</v>
@@ -9653,7 +9653,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>332.7211111111111</v>
+        <v>332.72</v>
       </c>
       <c r="C455" t="n">
         <v>340.32</v>
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>339.9911111111111</v>
+        <v>339.99</v>
       </c>
       <c r="C457" t="n">
         <v>343.09</v>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>338.2755555555556</v>
+        <v>338.28</v>
       </c>
       <c r="C458" t="n">
         <v>339.06</v>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>338.3633333333333</v>
+        <v>338.36</v>
       </c>
       <c r="C459" t="n">
         <v>347.74</v>
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>339.7022222222222</v>
+        <v>339.7</v>
       </c>
       <c r="C460" t="n">
         <v>337.71</v>
@@ -9779,7 +9779,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>320.1144444444445</v>
+        <v>320.11</v>
       </c>
       <c r="C461" t="n">
         <v>325.76</v>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>323.1833333333333</v>
+        <v>323.18</v>
       </c>
       <c r="C462" t="n">
         <v>331.38</v>
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>336.5922222222222</v>
+        <v>336.59</v>
       </c>
       <c r="C463" t="n">
         <v>336.33</v>
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>331.0111111111111</v>
+        <v>331.01</v>
       </c>
       <c r="C464" t="n">
         <v>337.56</v>
@@ -9863,7 +9863,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>336.4488888888889</v>
+        <v>336.45</v>
       </c>
       <c r="C465" t="n">
         <v>337.84</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>343.7044444444444</v>
+        <v>343.7</v>
       </c>
       <c r="C466" t="n">
         <v>340.19</v>
@@ -9924,7 +9924,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>345.3922222222222</v>
+        <v>345.39</v>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
@@ -9941,7 +9941,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>326.6133333333333</v>
+        <v>326.61</v>
       </c>
       <c r="C469" t="n">
         <v>335.85</v>
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>347.6388888888889</v>
+        <v>347.64</v>
       </c>
       <c r="C470" t="n">
         <v>358.32</v>
@@ -9983,7 +9983,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>323.6133333333333</v>
+        <v>323.61</v>
       </c>
       <c r="C471" t="n">
         <v>338.73</v>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>328.5233333333333</v>
+        <v>328.52</v>
       </c>
       <c r="C472" t="n">
         <v>343.43</v>
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>324.0122222222222</v>
+        <v>324.01</v>
       </c>
       <c r="C474" t="n">
         <v>333.25</v>
@@ -10067,7 +10067,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>317.4288888888889</v>
+        <v>317.43</v>
       </c>
       <c r="C475" t="n">
         <v>323.67</v>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>324.6233333333333</v>
+        <v>324.62</v>
       </c>
       <c r="C476" t="n">
         <v>329.74</v>
@@ -10109,7 +10109,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>323.4288888888889</v>
+        <v>323.43</v>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr"/>
@@ -10145,7 +10145,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>333.9133333333333</v>
+        <v>333.91</v>
       </c>
       <c r="C479" t="n">
         <v>348.08</v>
@@ -10166,7 +10166,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>330.3911111111111</v>
+        <v>330.39</v>
       </c>
       <c r="C480" t="n">
         <v>332.07</v>
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>328.8666666666667</v>
+        <v>328.87</v>
       </c>
       <c r="C482" t="n">
         <v>343.1</v>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>319.4933333333333</v>
+        <v>319.49</v>
       </c>
       <c r="C483" t="n">
         <v>330.2</v>
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>330.6077777777778</v>
+        <v>330.61</v>
       </c>
       <c r="C484" t="n">
         <v>346.47</v>
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>321.9033333333333</v>
+        <v>321.9</v>
       </c>
       <c r="C485" t="n">
         <v>338.8</v>
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>320.7733333333333</v>
+        <v>320.77</v>
       </c>
       <c r="C486" t="n">
         <v>336.08</v>
@@ -10313,7 +10313,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>330.0877777777778</v>
+        <v>330.09</v>
       </c>
       <c r="C487" t="n">
         <v>334.43</v>
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>311.4966666666667</v>
+        <v>311.5</v>
       </c>
       <c r="C488" t="n">
         <v>331.55</v>
@@ -10355,7 +10355,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>330.1611111111111</v>
+        <v>330.16</v>
       </c>
       <c r="C489" t="n">
         <v>337.1</v>
@@ -10376,7 +10376,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>333.3855555555555</v>
+        <v>333.39</v>
       </c>
       <c r="C490" t="n">
         <v>342.7</v>
@@ -10397,7 +10397,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>327.1266666666667</v>
+        <v>327.13</v>
       </c>
       <c r="C491" t="n">
         <v>340.63</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>323.5766666666667</v>
+        <v>323.58</v>
       </c>
       <c r="C493" t="n">
         <v>336.82</v>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>325.6588888888889</v>
+        <v>325.66</v>
       </c>
       <c r="C496" t="n">
         <v>326.3</v>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>349.3622222222222</v>
+        <v>349.36</v>
       </c>
       <c r="C498" t="n">
         <v>345.87</v>
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>340.0122222222222</v>
+        <v>340.01</v>
       </c>
       <c r="C499" t="n">
         <v>344.16</v>
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>351.7322222222222</v>
+        <v>351.73</v>
       </c>
       <c r="C500" t="n">
         <v>357.23</v>
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>335.1155555555555</v>
+        <v>335.12</v>
       </c>
       <c r="C504" t="n">
         <v>339.26</v>
@@ -10681,7 +10681,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>330.1622222222222</v>
+        <v>330.16</v>
       </c>
       <c r="C505" t="n">
         <v>332.53</v>
@@ -10702,13 +10702,13 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>323.6822222222222</v>
+        <v>323.68</v>
       </c>
       <c r="C506" t="n">
         <v>343.09</v>
       </c>
       <c r="D506" t="n">
-        <v>341.0700000000001</v>
+        <v>341.07</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>329.6466666666667</v>
+        <v>329.65</v>
       </c>
       <c r="C508" t="n">
         <v>334.06</v>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>332.3611111111111</v>
+        <v>332.36</v>
       </c>
       <c r="C509" t="n">
         <v>342</v>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>313.4844444444445</v>
+        <v>313.48</v>
       </c>
       <c r="C510" t="n">
         <v>319.87</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>330.7533333333333</v>
+        <v>330.75</v>
       </c>
       <c r="C511" t="n">
         <v>328.89</v>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>329.2166666666667</v>
+        <v>329.22</v>
       </c>
       <c r="C512" t="n">
         <v>335.04</v>
@@ -10906,7 +10906,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>328.2755555555556</v>
+        <v>328.28</v>
       </c>
       <c r="C516" t="n">
         <v>336.45</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>339.3422222222222</v>
+        <v>339.34</v>
       </c>
       <c r="C517" t="n">
         <v>356.17</v>
@@ -10948,7 +10948,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>334.1611111111111</v>
+        <v>334.16</v>
       </c>
       <c r="C518" t="n">
         <v>347.59</v>
@@ -10969,7 +10969,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>334.6422222222222</v>
+        <v>334.64</v>
       </c>
       <c r="C519" t="n">
         <v>344.81</v>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>333.2122222222222</v>
+        <v>333.21</v>
       </c>
       <c r="C520" t="n">
         <v>342.15</v>
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>338.9344444444445</v>
+        <v>338.93</v>
       </c>
       <c r="C521" t="n">
         <v>348.31</v>
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>324.3811111111111</v>
+        <v>324.38</v>
       </c>
       <c r="C522" t="n">
         <v>342.86</v>
@@ -11053,7 +11053,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>339.1166666666667</v>
+        <v>339.12</v>
       </c>
       <c r="C523" t="n">
         <v>343.08</v>
@@ -11074,7 +11074,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>323.4366666666667</v>
+        <v>323.44</v>
       </c>
       <c r="C524" t="n">
         <v>342.28</v>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>327.8366666666667</v>
+        <v>327.84</v>
       </c>
       <c r="C525" t="n">
         <v>341.45</v>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>334.4333333333333</v>
+        <v>334.43</v>
       </c>
       <c r="C526" t="n">
         <v>335.6</v>
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>352.2377777777777</v>
+        <v>352.24</v>
       </c>
       <c r="C527" t="n">
         <v>364.46</v>
@@ -11158,7 +11158,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>344.1788888888889</v>
+        <v>344.18</v>
       </c>
       <c r="C528" t="n">
         <v>341.99</v>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>332.1011111111111</v>
+        <v>332.1</v>
       </c>
       <c r="C529" t="n">
         <v>343.09</v>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>343.9366666666667</v>
+        <v>343.94</v>
       </c>
       <c r="C530" t="n">
         <v>355.61</v>
@@ -11240,7 +11240,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>338.4133333333333</v>
+        <v>338.41</v>
       </c>
       <c r="C532" t="n">
         <v>351.84</v>
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>331.6322222222223</v>
+        <v>331.63</v>
       </c>
       <c r="C533" t="n">
         <v>333.04</v>
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>320.5977777777778</v>
+        <v>320.6</v>
       </c>
       <c r="C534" t="n">
         <v>330.27</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>324.3933333333333</v>
+        <v>324.39</v>
       </c>
       <c r="C535" t="n">
         <v>339.86</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>343.7244444444444</v>
+        <v>343.72</v>
       </c>
       <c r="C536" t="n">
         <v>340.08</v>
@@ -11345,7 +11345,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>331.9377777777778</v>
+        <v>331.94</v>
       </c>
       <c r="C537" t="n">
         <v>331.61</v>
@@ -11366,7 +11366,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>339.5866666666667</v>
+        <v>339.59</v>
       </c>
       <c r="C538" t="n">
         <v>352.83</v>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>334.5722222222223</v>
+        <v>334.57</v>
       </c>
       <c r="C539" t="n">
         <v>355.88</v>
@@ -11408,7 +11408,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>338.2144444444444</v>
+        <v>338.21</v>
       </c>
       <c r="C540" t="n">
         <v>361.46</v>
@@ -11429,7 +11429,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>318.8933333333333</v>
+        <v>318.89</v>
       </c>
       <c r="C541" t="n">
         <v>323.42</v>
@@ -11450,7 +11450,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>325.5766666666667</v>
+        <v>325.58</v>
       </c>
       <c r="C542" t="n">
         <v>341.34</v>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>331.7766666666667</v>
+        <v>331.78</v>
       </c>
       <c r="C543" t="n">
         <v>347.76</v>
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>327.6644444444445</v>
+        <v>327.66</v>
       </c>
       <c r="C544" t="n">
         <v>341.76</v>
@@ -11513,7 +11513,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>357.3311111111111</v>
+        <v>357.33</v>
       </c>
       <c r="C545" t="n">
         <v>339.21</v>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>328.1377777777778</v>
+        <v>328.14</v>
       </c>
       <c r="C546" t="n">
         <v>344.76</v>
@@ -11553,7 +11553,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>335.5411111111111</v>
+        <v>335.54</v>
       </c>
       <c r="C547" t="n">
         <v>338.62</v>
@@ -11574,13 +11574,13 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>332.3344444444444</v>
+        <v>332.33</v>
       </c>
       <c r="C548" t="n">
         <v>340.79</v>
       </c>
       <c r="D548" t="n">
-        <v>347.6799999999999</v>
+        <v>347.68</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>336.3033333333333</v>
+        <v>336.3</v>
       </c>
       <c r="C549" t="n">
         <v>331.93</v>
@@ -11616,7 +11616,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>335.6433333333333</v>
+        <v>335.64</v>
       </c>
       <c r="C550" t="n">
         <v>343.79</v>
@@ -18682,7 +18682,7 @@
         <v>0.0464</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.339073350700212</v>
+        <v>-0.3390788029307067</v>
       </c>
       <c r="J2" t="n">
         <v>549</v>
@@ -18691,19 +18691,19 @@
         <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05333843739059907</v>
+        <v>0.05333966893580633</v>
       </c>
       <c r="M2" t="n">
-        <v>7.212042878828395</v>
+        <v>7.212137911328778</v>
       </c>
       <c r="N2" t="n">
-        <v>92.62807514471876</v>
+        <v>92.62879481228765</v>
       </c>
       <c r="O2" t="n">
-        <v>9.624348037385117</v>
+        <v>9.624385425173269</v>
       </c>
       <c r="P2" t="n">
-        <v>339.8781195434434</v>
+        <v>339.8780477563931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18847,16 +18847,16 @@
         <v>486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04296179874498862</v>
+        <v>0.0429617987449884</v>
       </c>
       <c r="M4" t="n">
-        <v>7.383329597573049</v>
+        <v>7.383329597573046</v>
       </c>
       <c r="N4" t="n">
-        <v>99.49295730567772</v>
+        <v>99.49295730567773</v>
       </c>
       <c r="O4" t="n">
-        <v>9.974615647015062</v>
+        <v>9.974615647015064</v>
       </c>
       <c r="P4" t="n">
         <v>350.7934222586633</v>
@@ -18940,7 +18940,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-45.359891642357894,170.86290901279511</t>
+          <t>-45.35989164650254,170.86290902570101</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-45.359926875971986,170.86301872594993</t>
+          <t>-45.35992685939345,170.86301867432624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -18994,7 +18994,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-45.35996489052614,170.86313709912778</t>
+          <t>-45.35996490710465,170.86313715075156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-45.35996286380469,170.86313078812458</t>
+          <t>-45.35996285551544,170.8631307623127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-45.359937158812976,170.86305074554298</t>
+          <t>-45.35993715466834,170.86305073263705</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -19075,7 +19075,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-45.359916717461445,170.8629870935462</t>
+          <t>-45.35991671331681,170.8629870806403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-45.35991772460913,170.86299022968365</t>
+          <t>-45.359917720464495,170.86299021677772</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -19129,7 +19129,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-45.359954964146844,170.86310618941295</t>
+          <t>-45.359954947568326,170.8631061377892</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -19156,7 +19156,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-45.35996399943188,170.86313432435128</t>
+          <t>-45.35996401186577,170.86313436306907</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -19183,7 +19183,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-45.360011977510716,170.86328372360842</t>
+          <t>-45.360011981655326,170.86328373651438</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-45.35996007032711,170.86312208952376</t>
+          <t>-45.35996005789324,170.86312205080594</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-45.35995359227499,170.86310191754927</t>
+          <t>-45.35995360470887,170.86310195626706</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -19264,7 +19264,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-45.359946243846956,170.86307903533438</t>
+          <t>-45.35994625628085,170.86307907405217</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-45.35991221223595,170.86297306481762</t>
+          <t>-45.35991219980201,170.8629730260999</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -19345,7 +19345,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-45.35997744458662,170.86317619122138</t>
+          <t>-45.359977440441995,170.86317617831543</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-45.359937249994914,170.86305102947333</t>
+          <t>-45.35993726657345,170.86305108109704</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-45.35993264530586,170.86303669099223</t>
+          <t>-45.35993264116122,170.8630366780863</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-45.35992089940336,170.86300011561553</t>
+          <t>-45.35992089111409,170.8630000898037</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-45.359920203103925,170.8629979474215</t>
+          <t>-45.35992021968247,170.86299799904518</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-45.35997677315815,170.86317410045856</t>
+          <t>-45.35997676901352,170.86317408755264</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -19507,7 +19507,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-45.35997197783162,170.86315916828377</t>
+          <t>-45.3599719944101,170.86315921990752</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-45.35994357884911,170.86307073682252</t>
+          <t>-45.35994357055984,170.86307071101066</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-45.35993670290324,170.8630493258913</t>
+          <t>-45.35993670704788,170.86304933879723</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -19615,7 +19615,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-45.359965064600374,170.86313764117716</t>
+          <t>-45.35996505631111,170.8631376153653</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -19642,7 +19642,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-45.35987259767821,170.86284971018912</t>
+          <t>-45.35987258524424,170.86284967147145</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -19688,7 +19688,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-45.35993775978486,170.86305261690208</t>
+          <t>-45.35993775149561,170.86305259109022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-45.3599178033573,170.86299047489604</t>
+          <t>-45.35991779506803,170.8629904490842</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.35996845904714,170.8631482111407</t>
+          <t>-45.35996845075789,170.8631481853288</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-45.36000016122727,170.86324692872594</t>
+          <t>-45.360000157082666,170.86324691581999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-45.359895467868796,170.8629209249448</t>
+          <t>-45.35989545129021,170.86292087332117</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-45.359910488064564,170.862967695958</t>
+          <t>-45.359910483919926,170.86296768305206</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-45.35996531327781,170.8631384155334</t>
+          <t>-45.359965317422436,170.86313842843936</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-45.35997802068878,170.86317798514753</t>
+          <t>-45.359978037267254,170.8631780367713</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -19954,7 +19954,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-45.359904548789615,170.86294920178776</t>
+          <t>-45.35990455293426,170.86294921469366</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-45.359903910514255,170.86294721427774</t>
+          <t>-45.35990391880354,170.86294724008954</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -20054,7 +20054,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-45.359947495525375,170.86308293292498</t>
+          <t>-45.359947487236106,170.86308290711312</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-45.35993478393753,170.8630433504485</t>
+          <t>-45.35993476735899,170.8630432988248</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-45.35996573602947,170.86313973193907</t>
+          <t>-45.35996572774022,170.8631397061272</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-45.35996209704904,170.8631284005263</t>
+          <t>-45.359962109482915,170.86312843924412</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-45.35997060596169,170.86315489641746</t>
+          <t>-45.35997061425094,170.86315492222934</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -20185,7 +20185,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-45.35994640963219,170.86307955157153</t>
+          <t>-45.35994640548756,170.8630795386656</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-45.359934158097694,170.86304140165404</t>
+          <t>-45.3599341705316,170.86304144037183</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-45.360013763836676,170.8632892860771</t>
+          <t>-45.36001377212589,170.86328931188905</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-45.35993407934963,170.86304115644154</t>
+          <t>-45.35993409592816,170.86304120806523</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -20293,7 +20293,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-45.35995784466277,170.86311515903677</t>
+          <t>-45.359957857096646,170.86311519775458</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-45.35992661071519,170.86301789997108</t>
+          <t>-45.35992659828128,170.86301786125333</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-45.35995807676187,170.8631158817691</t>
+          <t>-45.359958080906495,170.86311589467502</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -20393,7 +20393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-45.359916108199215,170.8629851963767</t>
+          <t>-45.35991611648848,170.86298522218854</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -20420,7 +20420,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-45.35994665002076,170.86308030011543</t>
+          <t>-45.35994666659928,170.86308035173914</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -20447,7 +20447,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-45.35993001760672,170.86302850863774</t>
+          <t>-45.35993003004064,170.8630285473555</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -20474,7 +20474,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-45.35990008086137,170.8629352892185</t>
+          <t>-45.35990007671673,170.8629352763126</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-45.35998871380305,170.86321128248852</t>
+          <t>-45.359988705513835,170.86321125667664</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-45.35989797538071,170.8629287330178</t>
+          <t>-45.359897987814655,170.8629287717355</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-45.35993235932602,170.86303580048357</t>
+          <t>-45.35993234274747,170.86303574885986</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -20582,7 +20582,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-45.359851497215544,170.86278400630482</t>
+          <t>-45.35985150964953,170.8627840450225</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -20609,7 +20609,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-45.359949704613115,170.86308981178564</t>
+          <t>-45.3599496880346,170.86308976016193</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-45.35992881566212,170.8630247659206</t>
+          <t>-45.35992879908358,170.86302471429693</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-45.35989571654769,170.86292169929914</t>
+          <t>-45.35989571240304,170.8629216863932</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -20713,7 +20713,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-45.35992607191229,170.8630162222015</t>
+          <t>-45.35992607605696,170.86301623510744</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-45.35988956174365,170.8629025340318</t>
+          <t>-45.35988955759899,170.8629025211259</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-45.35989315515487,170.86291372345</t>
+          <t>-45.359893138576275,170.8629136718264</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-45.35990982077702,170.86296561810616</t>
+          <t>-45.35990981248772,170.86296559229433</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -20821,7 +20821,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-45.35994402646932,170.86307213066272</t>
+          <t>-45.35994401818005,170.86307210485086</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-45.35996238302818,170.86312929103593</t>
+          <t>-45.3599623705943,170.86312925231812</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -20875,7 +20875,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-45.35999271335692,170.86322373672982</t>
+          <t>-45.35999269677847,170.86322368510602</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -20902,7 +20902,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-45.35992992642473,170.86302822470745</t>
+          <t>-45.35992991813545,170.86302819889562</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-45.35993486683023,170.86304360856695</t>
+          <t>-45.35993487926414,170.86304364728474</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -20983,7 +20983,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-45.35999791070265,170.8632399207932</t>
+          <t>-45.359997918991894,170.86323994660512</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -21010,7 +21010,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-45.35994281623685,170.86306836213188</t>
+          <t>-45.359942824526115,170.86306838794374</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-45.35997190322843,170.86315893597683</t>
+          <t>-45.35997191980691,170.8631589876006</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-45.359914703165785,170.8629808212717</t>
+          <t>-45.35991469902115,170.8629808083658</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-45.359932011176625,170.8630347163861</t>
+          <t>-45.35993200703199,170.86303470348017</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-45.35992460056583,170.86301164060023</t>
+          <t>-45.359924583987286,170.86301158897658</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-45.35993626771667,170.86304797076923</t>
+          <t>-45.35993625942741,170.8630479449574</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -21206,7 +21206,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-45.35988516012427,170.86288882796447</t>
+          <t>-45.359885155979626,170.86288881505857</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-45.36001827731336,170.86330334066898</t>
+          <t>-45.36001828560257,170.8633033664809</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -21260,7 +21260,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-45.35995333116341,170.86310110447553</t>
+          <t>-45.359953343597304,170.86310114319335</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-45.3599364542252,170.86304855153583</t>
+          <t>-45.35993644593593,170.863048525724</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -21310,7 +21310,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-45.359936508105456,170.86304871931284</t>
+          <t>-45.35993652053934,170.86304875803063</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-45.359945816949974,170.86307770602372</t>
+          <t>-45.359945808660726,170.86307768021186</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-45.35991068700742,170.86296831544178</t>
+          <t>-45.359910670428846,170.86296826381812</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -21391,7 +21391,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-45.35992666459547,170.86301806774804</t>
+          <t>-45.359926672884754,170.86301809355987</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-45.35987016476484,170.86284213442934</t>
+          <t>-45.35987016062018,170.86284212152344</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -21456,7 +21456,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-45.35986743343561,170.862833629446</t>
+          <t>-45.35986743758027,170.8628336423519</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-45.35990665426913,170.86295575799002</t>
+          <t>-45.35990664183519,170.86295571927226</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-45.359919763772105,170.86299657939435</t>
+          <t>-45.35991977206139,170.86299660520618</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -21529,7 +21529,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-45.359986699519474,170.86320501019773</t>
+          <t>-45.35998669123023,170.86320498438582</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-45.35993363172906,170.86303976260183</t>
+          <t>-45.35993364830759,170.86303981422552</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-45.35991929957244,170.8629951339317</t>
+          <t>-45.35991928713852,170.86299509521393</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -21610,7 +21610,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-45.35991556939586,170.86298351860782</t>
+          <t>-45.35991555696193,170.86298347989006</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-45.35992277278025,170.86300594909025</t>
+          <t>-45.35992275620171,170.8630058974666</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-45.35995569774593,170.8631084737631</t>
+          <t>-45.3599556936013,170.86310846085718</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21683,7 +21683,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-45.359945195255335,170.86307577013446</t>
+          <t>-45.35994521183387,170.86307582175817</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-45.35992145892968,170.86300185791436</t>
+          <t>-45.359921450640414,170.86300183210253</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21764,7 +21764,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-45.359928753492575,170.86302457233182</t>
+          <t>-45.35992876178185,170.86302459814368</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21791,7 +21791,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-45.35994393114278,170.86307183382638</t>
+          <t>-45.35994394357668,170.86307187254417</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-45.359976885062906,170.86317444891904</t>
+          <t>-45.359976880918275,170.86317443601308</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-45.35998056962966,170.86318592230324</t>
+          <t>-45.359980573774294,170.86318593520917</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-45.359909427035895,170.86296439204452</t>
+          <t>-45.359909439469824,170.86296443076228</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -21926,7 +21926,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-45.35991239045556,170.8629736197719</t>
+          <t>-45.359912386310924,170.86297360686598</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -21953,7 +21953,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-45.35988659002904,170.86289328050023</t>
+          <t>-45.359886573450446,170.86289322887663</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-45.36000767540676,170.86327032722357</t>
+          <t>-45.36000769198521,170.8632703788474</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-45.359893631789504,170.862915207629</t>
+          <t>-45.3598936235002,170.86291518181716</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -22026,7 +22026,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-45.35991399443206,170.8629786143604</t>
+          <t>-45.35991399028742,170.8629786014545</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-45.359909858078794,170.86296573425935</t>
+          <t>-45.35990984978952,170.86296570844755</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-45.359932011176625,170.8630347163861</t>
+          <t>-45.35993200703199,170.86303470348017</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -22130,7 +22130,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-45.35993048180598,170.86302995410094</t>
+          <t>-45.35993047766135,170.863029941195</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-45.35998689431646,170.86320561677726</t>
+          <t>-45.35998687773798,170.8632055651535</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-45.359949414489044,170.86308890837051</t>
+          <t>-45.359949426922924,170.8630889470883</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -22207,7 +22207,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-45.35992698787719,170.86301907440978</t>
+          <t>-45.35992697129864,170.8630190227861</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-45.3599619934334,170.86312807787792</t>
+          <t>-45.35996199757803,170.86312809078385</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-45.35995223283687,170.86309768440358</t>
+          <t>-45.359952224547605,170.86309765859173</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-45.359918715178175,170.86299331419752</t>
+          <t>-45.35991872761211,170.86299335291528</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-45.359999593415395,170.86324516061023</t>
+          <t>-45.35999959756001,170.8632451735162</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -22388,7 +22388,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-45.35989777643762,170.8629281135343</t>
+          <t>-45.359897764003684,170.86292807481658</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-45.359941154239344,170.86306318685521</t>
+          <t>-45.359941145950096,170.86306316104339</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -22457,7 +22457,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-45.35995599615911,170.86310940299032</t>
+          <t>-45.35995599201448,170.86310939008436</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -22484,7 +22484,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-45.359929495382524,170.86302688249165</t>
+          <t>-45.35992950781645,170.86302692120944</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-45.35994171376473,170.86306492915529</t>
+          <t>-45.35994170547546,170.86306490334343</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-45.359887439682524,170.86289592621</t>
+          <t>-45.35988743139323,170.8628959003982</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -22565,7 +22565,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-45.35990561396334,170.86295251860656</t>
+          <t>-45.359905597384774,170.8629524669829</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-45.35996707474295,170.86314390055713</t>
+          <t>-45.35996707059833,170.86314388765118</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-45.35998959246164,170.86321401854968</t>
+          <t>-45.35998960075087,170.86321404436157</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -22669,7 +22669,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-45.359926171383606,170.8630165319436</t>
+          <t>-45.35992618796217,170.8630165835673</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-45.359942463943135,170.86306726512808</t>
+          <t>-45.35994245150924,170.8630672264103</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-45.35991808104822,170.86299133959238</t>
+          <t>-45.359918093482136,170.86299137831014</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-45.36000248635447,170.8632541689664</t>
+          <t>-45.36000246977602,170.86325411734256</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-45.35997205243481,170.8631594005907</t>
+          <t>-45.359972069013295,170.86315945221446</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -22811,7 +22811,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-45.35997797509796,170.86317784318214</t>
+          <t>-45.35997796266409,170.8631778044643</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-45.35989441098346,170.86291763393902</t>
+          <t>-45.35989440683881,170.86291762103312</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-45.35990870172328,170.86296213351</t>
+          <t>-45.35990869343399,170.86296210769817</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -22903,7 +22903,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-45.35993269504148,170.8630368458633</t>
+          <t>-45.35993267846294,170.8630367942396</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-45.359913202805444,170.8629761493309</t>
+          <t>-45.35991320695008,170.8629761622368</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -22953,7 +22953,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-45.35988581497922,170.86289086709678</t>
+          <t>-45.35988582741319,170.86289090581448</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -22980,7 +22980,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-45.359878565981504,170.86286829467934</t>
+          <t>-45.35987855354755,170.86286825596164</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -23007,7 +23007,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-45.35992314165311,170.86300709771697</t>
+          <t>-45.35992312921918,170.86300705899922</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-45.359895273070336,170.86292031836726</t>
+          <t>-45.35989526478103,170.86292029255543</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-45.359905866786676,170.86295330586708</t>
+          <t>-45.35990585849738,170.86295328005525</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-45.359906049151036,170.8629538737271</t>
+          <t>-45.3599060450064,170.8629538608212</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-45.35990724280861,170.8629575906293</t>
+          <t>-45.359907238663965,170.8629575777234</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -23130,7 +23130,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-45.359879146233055,170.862870101505</t>
+          <t>-45.359879150377715,170.86287011441087</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-45.35988984772451,170.86290342453907</t>
+          <t>-45.3598898560138,170.86290345035087</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-45.359915490647666,170.86298327339543</t>
+          <t>-45.35991548235839,170.8629832475836</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-45.35992410320925,170.86301009189</t>
+          <t>-45.359924099064614,170.8630100789841</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-45.359947172244205,170.86308192626248</t>
+          <t>-45.35994718882273,170.86308197788622</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -23299,7 +23299,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-45.35985834005281,170.8628053139232</t>
+          <t>-45.359858335908136,170.8628053010173</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -23318,7 +23318,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-45.35991357167858,170.8629772979572</t>
+          <t>-45.35991357996787,170.86297732376903</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-45.35991909648507,170.8629945015418</t>
+          <t>-45.359919100629725,170.8629945144477</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-45.35986809243621,170.86283568148286</t>
+          <t>-45.359868109014826,170.86283573310646</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-45.359928571128556,170.8630240044713</t>
+          <t>-45.359928575273194,170.86302401737723</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-45.35986672469909,170.86283142253845</t>
+          <t>-45.35986672884376,170.86283143544435</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -23491,7 +23491,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-45.35992329500474,170.8630075752359</t>
+          <t>-45.35992327842619,170.86300752361223</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -23518,7 +23518,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-45.35990628954041,170.8629546222699</t>
+          <t>-45.359906306119,170.86295467389354</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-45.35994984967515,170.8630902634932</t>
+          <t>-45.35994983724127,170.86309022477542</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -23572,7 +23572,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-45.35992717853051,170.86301966808207</t>
+          <t>-45.359927195109066,170.86301971970576</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-45.359919258126034,170.86299500487252</t>
+          <t>-45.359919249836764,170.8629949790607</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -23653,7 +23653,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-45.35991234071985,170.86297346490096</t>
+          <t>-45.359912349009136,170.86297349071276</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -23680,7 +23680,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-45.359857063497145,170.8628013389098</t>
+          <t>-45.35985706764181,170.86280135181568</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -23707,7 +23707,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-45.359905406731116,170.86295187331106</t>
+          <t>-45.359905410875754,170.862951886217</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-45.359970871217534,170.86315572239764</t>
+          <t>-45.35997087536215,170.86315573530356</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -23776,7 +23776,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-45.35990482233618,170.86295005357778</t>
+          <t>-45.359904814046885,170.86295002776598</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-45.359898970096026,170.8629318304354</t>
+          <t>-45.35989895766209,170.8629317917177</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -23822,7 +23822,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-45.35992862500885,170.8630241722483</t>
+          <t>-45.35992861257493,170.86302413353053</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -23849,7 +23849,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-45.359951308584634,170.86309480638087</t>
+          <t>-45.35995129200613,170.86309475475716</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-45.359937855111454,170.86305291373833</t>
+          <t>-45.35993786340071,170.8630529395502</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -23922,7 +23922,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-45.35989865095821,170.86293083668056</t>
+          <t>-45.359898659247506,170.8629308624924</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -23949,7 +23949,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-45.359964331001855,170.86313535682623</t>
+          <t>-45.35996434758035,170.86313540844998</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -23976,7 +23976,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-45.35995156140701,170.86309559364267</t>
+          <t>-45.35995155311774,170.8630955678308</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -23995,7 +23995,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-45.35991681693282,170.8629874032882</t>
+          <t>-45.35991682522209,170.86298742910003</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-45.35993224327621,170.86303543911774</t>
+          <t>-45.35993223084231,170.86303540039998</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -24049,7 +24049,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-45.35994430001499,170.86307298245396</t>
+          <t>-45.35994431659352,170.86307303407767</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-45.3599107906235,170.8629686380896</t>
+          <t>-45.35991078233421,170.86296861227777</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-45.359920360600235,170.86299843784633</t>
+          <t>-45.35992036888952,170.86299846365816</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-45.35992530515432,170.86301383460648</t>
+          <t>-45.3599252927204,170.86301379588872</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-45.35995331872952,170.86310106575775</t>
+          <t>-45.35995330629565,170.86310102703993</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-45.35994526156942,170.8630759766293</t>
+          <t>-45.35994524913554,170.8630759379115</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -24230,7 +24230,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-45.35990580876166,170.86295312518433</t>
+          <t>-45.359905821195596,170.86295316390206</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24257,7 +24257,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-45.359932628727314,170.86303663936854</t>
+          <t>-45.35993264116122,170.8630366780863</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-45.359942658740856,170.86306787170665</t>
+          <t>-45.359942675319374,170.86306792333036</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24311,7 +24311,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-45.35991263084482,170.86297436831487</t>
+          <t>-45.35991264742338,170.86297441993852</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24338,7 +24338,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-45.359935455368344,170.86304544120813</t>
+          <t>-45.359935438789805,170.8630453895844</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-45.35987675476756,170.86286265480237</t>
+          <t>-45.35987676305685,170.86286268061417</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24392,7 +24392,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-45.359910309844906,170.86296714100376</t>
+          <t>-45.359910297410984,170.862967102286</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-45.35994431244889,170.86307302117174</t>
+          <t>-45.35994431659352,170.86307303407767</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-45.35992064658036,170.8629993283546</t>
+          <t>-45.35992063000182,170.86299927673093</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24473,7 +24473,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-45.35985416223378,170.86279230478914</t>
+          <t>-45.35985415808913,170.8627922918832</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-45.35990543159899,170.86295195074652</t>
+          <t>-45.359905448177564,170.86295200237015</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-45.35994519939997,170.8630757830404</t>
+          <t>-45.35994521183387,170.86307582175817</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -24554,7 +24554,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-45.35990083933169,170.86293765099958</t>
+          <t>-45.359900822753104,170.86293759937595</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -24615,7 +24615,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-45.35993563773224,170.86304600906877</t>
+          <t>-45.35993562529835,170.863045970351</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -24642,7 +24642,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-45.35992596000708,170.8630158737417</t>
+          <t>-45.35992596415172,170.86301588664762</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-45.35992943735763,170.86302670180876</t>
+          <t>-45.35992943321299,170.86302668890283</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -24738,7 +24738,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-45.359944440932445,170.86307342125554</t>
+          <t>-45.359944428498565,170.86307338253772</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-45.359873422464744,170.8628522784622</t>
+          <t>-45.35987340588611,170.8628522268386</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-45.3599056844223,170.86295273800704</t>
+          <t>-45.35990567198839,170.8629526992893</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -24880,7 +24880,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-45.359967866366034,170.8631463655914</t>
+          <t>-45.359967853932154,170.8631463268736</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-45.359919581407944,170.86299601153402</t>
+          <t>-45.35991958555259,170.86299602443995</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -24957,7 +24957,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-45.35997552977203,170.86317022867576</t>
+          <t>-45.35997553806127,170.86317025448764</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -24976,7 +24976,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-45.35995515479971,170.86310678308587</t>
+          <t>-45.35995517137823,170.8631068347096</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -25026,7 +25026,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-45.35993533931857,170.86304507984227</t>
+          <t>-45.35993532688467,170.86304504112448</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25053,7 +25053,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-45.3599010548533,170.86293832210677</t>
+          <t>-45.359901046564,170.86293829629497</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25099,7 +25099,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-45.359943985022994,170.86307200160346</t>
+          <t>-45.35994398087836,170.86307198869753</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -25126,7 +25126,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-45.35992561600216,170.8630148025504</t>
+          <t>-45.35992562843606,170.86301484126815</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -25153,7 +25153,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-45.35994634331811,170.86307934507667</t>
+          <t>-45.359946330884206,170.86307930635888</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -25180,7 +25180,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-45.35994759085187,170.86308322976137</t>
+          <t>-45.35994759914112,170.86308325557323</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -25207,7 +25207,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-45.35998858117534,170.86321086949815</t>
+          <t>-45.35998859360919,170.863210908216</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -25230,7 +25230,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-45.359950206113275,170.86309137340325</t>
+          <t>-45.35995021025791,170.86309138630918</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -25257,7 +25257,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-45.359921268276274,170.86300126424217</t>
+          <t>-45.35992126413164,170.86300125133624</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -25284,7 +25284,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-45.35995010249755,170.86309105075497</t>
+          <t>-45.359950098352904,170.86309103784905</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-45.3599062771065,170.86295458355218</t>
+          <t>-45.35990626881719,170.86295455774035</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -25365,7 +25365,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-45.35992556212186,170.86301463477344</t>
+          <t>-45.35992555383259,170.8630146089616</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -25392,7 +25392,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-45.35995616608882,170.86310993213357</t>
+          <t>-45.3599561785227,170.86310997085138</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-45.35980554110044,170.8626409059731</t>
+          <t>-45.35980555353448,170.86264094469067</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-45.35990076887269,170.86293743159916</t>
+          <t>-45.35990078545127,170.8629374832228</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-45.35991016892705,170.86296670220275</t>
+          <t>-45.35991018550562,170.8629667538264</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -25519,7 +25519,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-45.359922337593176,170.86300459396887</t>
+          <t>-45.35992234588245,170.8630046197807</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -25546,7 +25546,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-45.3599291057867,170.8630256693351</t>
+          <t>-45.35992909749743,170.86302564352323</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -25573,7 +25573,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-45.359907006563894,170.8629568549924</t>
+          <t>-45.359907014853185,170.86295688080423</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-45.35984566981745,170.86276586063275</t>
+          <t>-45.35984565323879,170.86276580900923</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -25623,7 +25623,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-45.35993182466802,170.8630341356196</t>
+          <t>-45.35993182052338,170.86303412271369</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -25650,7 +25650,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-45.359935306161496,170.86304497659486</t>
+          <t>-45.35993528958296,170.86304492497118</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -25677,7 +25677,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-45.35992542949345,170.86301422178403</t>
+          <t>-45.35992544192736,170.86301426050179</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -25704,7 +25704,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-45.35990085591027,170.8629377026232</t>
+          <t>-45.35990086005492,170.8629377155291</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -25750,7 +25750,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-45.359892040244226,170.86291025176183</t>
+          <t>-45.35989205682282,170.86291030338543</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -25804,7 +25804,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-45.35989250858961,170.86291171012894</t>
+          <t>-45.35989250444496,170.86291169722304</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-45.35989943429649,170.86293327589698</t>
+          <t>-45.35989944258578,170.8629333017088</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -25842,7 +25842,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-45.359945178676824,170.86307571851074</t>
+          <t>-45.359945174532186,170.8630757056048</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -25869,7 +25869,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-45.35991399857671,170.86297862726633</t>
+          <t>-45.35991399028742,170.8629786014545</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-45.359930324309815,170.86302946367593</t>
+          <t>-45.35993032845443,170.86302947658183</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -25923,7 +25923,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-45.35978646312701,170.86258150030437</t>
+          <t>-45.35978645483764,170.86258147449266</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -25969,7 +25969,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-45.35996160798325,170.8631268776259</t>
+          <t>-45.359961624561755,170.8631269292496</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-45.35989291890987,170.86291298781347</t>
+          <t>-45.359892914765226,170.86291297490754</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-45.359865178741536,170.86282660864094</t>
+          <t>-45.359865162162876,170.86282655701737</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-45.359883796533765,170.86288458192334</t>
+          <t>-45.35988381311237,170.86288463354694</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-45.35991354681073,170.8629772205217</t>
+          <t>-45.3599135426661,170.8629772076158</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-45.35993388040715,170.86304053695721</t>
+          <t>-45.35993387211787,170.86304051114536</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -26192,7 +26192,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-45.35995716908859,170.86311305536952</t>
+          <t>-45.359957185667106,170.86311310699324</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -26219,7 +26219,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-45.359953430634484,170.8631014142179</t>
+          <t>-45.35995341820061,170.8631013755001</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -26242,7 +26242,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-45.35988794947459,170.86289751363591</t>
+          <t>-45.359887953619236,170.86289752654181</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -26269,7 +26269,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-45.35990336342107,170.86294551069776</t>
+          <t>-45.359903359276416,170.86294549779186</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -26296,7 +26296,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-45.35985136458632,170.8627835933165</t>
+          <t>-45.35985136044165,170.86278358041062</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -26323,7 +26323,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-45.35991066628421,170.86296825091222</t>
+          <t>-45.359910670428846,170.86296826381812</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -26342,7 +26342,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-45.3598901958751,170.8629045086349</t>
+          <t>-45.35989019173047,170.862904495729</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -26388,7 +26388,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-45.35981876676446,170.86268208859295</t>
+          <t>-45.35981875847513,170.86268206278123</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -26415,7 +26415,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-45.35993939691504,170.86305771474255</t>
+          <t>-45.35993939277041,170.86305770183662</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -26438,7 +26438,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-45.359979015397485,170.86318108257407</t>
+          <t>-45.35997900710825,170.86318105676216</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-45.359978542910845,170.86317961129643</t>
+          <t>-45.35997855948932,170.86317966292023</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -26492,7 +26492,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-45.359851422611605,170.8627837739989</t>
+          <t>-45.359851435045584,170.86278381271654</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-45.35986970056325,170.8628406889693</t>
+          <t>-45.359869712997224,170.86284072768697</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-45.35994757841797,170.86308319104356</t>
+          <t>-45.35994756183945,170.86308313941984</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -26573,7 +26573,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-45.35984453003442,170.86276231151524</t>
+          <t>-45.35984453417908,170.8627623244211</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -26592,7 +26592,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-45.359897681110745,170.86292781669846</t>
+          <t>-45.359897689400036,170.86292784251026</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-45.35987013160759,170.8628420311822</t>
+          <t>-45.359870123318274,170.86284200537042</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -26646,7 +26646,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-45.35984979790345,170.86277871489224</t>
+          <t>-45.359849793758784,170.86277870198634</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -26700,7 +26700,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-45.359887099821144,170.86289486792606</t>
+          <t>-45.359887095676484,170.8628948550202</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -26727,7 +26727,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-45.35990343802469,170.8629457430041</t>
+          <t>-45.35990343388003,170.86294573009818</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -26754,7 +26754,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-45.35985586154527,170.86279759620254</t>
+          <t>-45.35985587397926,170.8627976349202</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -26781,7 +26781,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-45.35997148047698,170.86315761957087</t>
+          <t>-45.35997147218774,170.86315759375898</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-45.359976255080625,170.8631724872157</t>
+          <t>-45.35997624679137,170.86317246140385</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -26827,7 +26827,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-45.359876485365,170.8628618159191</t>
+          <t>-45.35987650194361,170.8628618675427</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-45.35992479950847,170.86301226008436</t>
+          <t>-45.35992480779775,170.8630122858962</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-45.35989279871506,170.86291261354222</t>
+          <t>-45.35989280285971,170.86291262644812</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-45.3599610153018,170.86312503207705</t>
+          <t>-45.359961027735665,170.86312507079484</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-45.35990957209841,170.86296484375143</t>
+          <t>-45.359909588676985,170.86296489537506</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -26981,7 +26981,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-45.35992681794707,170.86301854526704</t>
+          <t>-45.3599268220917,170.86301855817297</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -27023,7 +27023,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-45.35991494355501,170.86298156981474</t>
+          <t>-45.35991496013357,170.8629816214384</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -27077,7 +27077,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-45.35979797291386,170.8626173398698</t>
+          <t>-45.35979798120322,170.8626173656815</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -27104,7 +27104,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-45.359868933801664,170.8628383013791</t>
+          <t>-45.35986892965701,170.8628382884732</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -27127,7 +27127,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-45.35989412500271,170.8629167434316</t>
+          <t>-45.359894108424115,170.86291669180798</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -27154,7 +27154,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-45.35987416850277,170.8628546015233</t>
+          <t>-45.359874151924146,170.86285454989974</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-45.359918437487295,170.86299244950115</t>
+          <t>-45.359918429198004,170.86299242368932</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-45.35993632574153,170.86304815145218</t>
+          <t>-45.35993633403082,170.863048177264</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -27262,7 +27262,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-45.35989247128777,170.86291159397584</t>
+          <t>-45.35989246714312,170.86291158106994</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -27316,7 +27316,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-45.35993616824545,170.86304766102705</t>
+          <t>-45.35993618482398,170.86304771265074</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-45.359942463943135,170.86306726512808</t>
+          <t>-45.35994245150924,170.8630672264103</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -27370,7 +27370,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-45.3599151424978,170.8629821892986</t>
+          <t>-45.35991514664244,170.8629822022045</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-45.35993285253763,170.86303733628836</t>
+          <t>-45.35993286497153,170.86303737500612</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-45.35997388021289,170.8631650921108</t>
+          <t>-45.359973896791374,170.86316514373456</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -27470,7 +27470,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-45.3599198052185,170.86299670845352</t>
+          <t>-45.35991980936315,170.86299672135942</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -27497,7 +27497,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-45.35991705317734,170.86298813892535</t>
+          <t>-45.3599170490327,170.86298812601942</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -27574,7 +27574,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-45.35992011606648,170.86299767639724</t>
+          <t>-45.35992010777723,170.8629976505854</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -27601,7 +27601,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-45.35991140817528,170.86297056107054</t>
+          <t>-45.35991141646456,170.86297058688237</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -27628,7 +27628,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-45.35994085997044,170.86306227053444</t>
+          <t>-45.35994084753655,170.86306223181666</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -27655,7 +27655,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-45.359943897985744,170.86307173057898</t>
+          <t>-45.359943906275,170.86307175639084</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -27682,7 +27682,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-45.35997249590933,170.8631607815264</t>
+          <t>-45.35997247933084,170.86316072990263</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -27709,7 +27709,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-45.35995202560544,170.863097039107</t>
+          <t>-45.359952038039324,170.8630970778248</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-45.35990469385218,170.86294965349458</t>
+          <t>-45.35990470214148,170.8629496793064</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -27809,7 +27809,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-45.359891969785195,170.86291003236147</t>
+          <t>-45.359891982219146,170.86291007107917</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -27832,7 +27832,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-45.3599522950063,170.86309787799257</t>
+          <t>-45.35995229915092,170.8630978908985</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -27859,7 +27859,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-45.35993562944299,170.86304598325694</t>
+          <t>-45.35993562529835,170.863045970351</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -27886,7 +27886,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-45.359924832665584,170.86301236333168</t>
+          <t>-45.35992484509949,170.86301240204943</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -27913,7 +27913,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-45.35981972418427,170.86268506984888</t>
+          <t>-45.359819728328944,170.86268508275475</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-45.35993428658137,170.8630418017377</t>
+          <t>-45.35993428243674,170.86304178883177</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-45.359934800516086,170.86304340207218</t>
+          <t>-45.35993480466072,170.8630434149781</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-45.35989508241651,170.86291972469562</t>
+          <t>-45.35989507827186,170.86291971178971</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -28055,7 +28055,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-45.359947756637084,170.86308374599855</t>
+          <t>-45.35994774834781,170.86308372018667</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-45.359780026428304,170.86256145751466</t>
+          <t>-45.35978003886237,170.86256149623222</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-45.359912092041306,170.86297269054617</t>
+          <t>-45.35991208789666,170.86297267764024</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -28132,7 +28132,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-45.35991556110657,170.862983492796</t>
+          <t>-45.35991555696193,170.86298347989006</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-45.35995963928601,170.86312074730648</t>
+          <t>-45.35995964757525,170.86312077311837</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-45.359925727907374,170.86301515101022</t>
+          <t>-45.35992574034129,170.86301518972797</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-45.35990325980492,170.86294518805002</t>
+          <t>-45.35990324737099,170.86294514933232</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -28297,7 +28297,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-45.35991103101279,170.8629693866325</t>
+          <t>-45.35991104344671,170.86296942535023</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-45.35990064038866,170.862937031516</t>
+          <t>-45.359900636244014,170.8629370186101</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-45.35993520254564,170.8630446539468</t>
+          <t>-45.359935214979544,170.86304469266454</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -28378,7 +28378,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-45.35996452579919,170.86313596340528</t>
+          <t>-45.35996453408845,170.86313598921717</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-45.35992334474041,170.86300773010692</t>
+          <t>-45.359923353029686,170.86300775591877</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-45.35990855666075,170.8629616818031</t>
+          <t>-45.359908544226826,170.86296164308536</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -28482,7 +28482,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-45.359899343114265,170.86293299196703</t>
+          <t>-45.35989933068031,170.8629329532493</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-45.3598681504614,170.86283586216538</t>
+          <t>-45.35986814631674,170.86283584925948</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -28536,7 +28536,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-45.3599630295897,170.86313130436204</t>
+          <t>-45.359963042023566,170.86313134307983</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -28563,7 +28563,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-45.35993363172906,170.86303976260183</t>
+          <t>-45.35993364830759,170.86303981422552</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -28590,7 +28590,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-45.35988827275734,170.86289852029626</t>
+          <t>-45.359888289335935,170.86289857191986</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-45.35993120297265,170.8630321997313</t>
+          <t>-45.35993118639411,170.8630321481076</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -28671,7 +28671,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-45.35993427000283,170.863041750114</t>
+          <t>-45.35993428243674,170.86304178883177</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -28698,7 +28698,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-45.359895297938216,170.8629203958027</t>
+          <t>-45.35989530208286,170.8629204087086</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -28744,7 +28744,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-45.35992946222544,170.86302677924428</t>
+          <t>-45.359929470514714,170.86302680505614</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -28790,7 +28790,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-45.3599019542415,170.86294112268882</t>
+          <t>-45.35990194180757,170.8629410839711</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -28817,7 +28817,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-45.35992155840102,170.86300216765636</t>
+          <t>-45.359921562545665,170.8630021805623</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -28844,7 +28844,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-45.35994466474255,170.86307411817566</t>
+          <t>-45.35994465230865,170.86307407945785</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -28871,7 +28871,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-45.359878706899735,170.86286873347984</t>
+          <t>-45.35987870275509,170.86286872057394</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-45.359969466190506,170.86315134728397</t>
+          <t>-45.359969457901265,170.8631513214721</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-45.35992637032621,170.86301715142773</t>
+          <t>-45.359926374470845,170.86301716433366</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -28952,7 +28952,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-45.3599100694556,170.86296639246086</t>
+          <t>-45.35991007360025,170.86296640536676</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -28979,7 +28979,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-45.35991419337487,170.86297923384427</t>
+          <t>-45.359914176796295,170.8629791822206</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -29006,7 +29006,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-45.35993273648783,170.8630369749225</t>
+          <t>-45.359932753066374,170.8630370265462</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -29060,7 +29060,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-45.35986798881976,170.86283535883555</t>
+          <t>-45.35986799710906,170.86283538464735</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -29087,7 +29087,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-45.359943624440064,170.86307087878774</t>
+          <t>-45.35994360786154,170.86307082716405</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -29110,7 +29110,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-45.35991898043515,170.86299414017614</t>
+          <t>-45.35991898872443,170.862994165988</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -29164,7 +29164,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-45.35989947159831,170.86293339205014</t>
+          <t>-45.3598994798876,170.86293341786197</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -29191,7 +29191,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>-45.35991021451811,170.8629668441678</t>
+          <t>-45.3599102228074,170.8629668699796</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -29218,7 +29218,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-45.35993414980842,170.86304137584222</t>
+          <t>-45.35993413322988,170.86304132421853</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-45.35986476013098,170.86282530514595</t>
+          <t>-45.35986475184167,170.86282527933415</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-45.35992516423663,170.8630133958052</t>
+          <t>-45.359925180815175,170.8630134474289</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-45.359888857153074,170.86290034002843</t>
+          <t>-45.35988884886378,170.8629003142166</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>-45.35993687283323,170.8630498550342</t>
+          <t>-45.3599368562547,170.8630498034105</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -29468,7 +29468,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>-45.35990027151511,170.86293588289024</t>
+          <t>-45.35990026322584,170.86293585707844</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-45.35990655894231,170.8629554611541</t>
+          <t>-45.359906567231604,170.8629554869659</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -29522,7 +29522,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>-45.359882482678934,170.86288049075318</t>
+          <t>-45.359882470244976,170.86288045203548</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -29568,7 +29568,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>-45.35991010675739,170.86296650861408</t>
+          <t>-45.35991011090203,170.86296652151998</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -29595,7 +29595,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>-45.359938501674264,170.86305492706265</t>
+          <t>-45.35993849752963,170.86305491415672</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>-45.359981659664406,170.86318931656677</t>
+          <t>-45.35998165551978,170.86318930366085</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -29649,7 +29649,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>-45.359918031312525,170.8629911847214</t>
+          <t>-45.35991801887861,170.86299114600365</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -29668,7 +29668,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>-45.3599163900348,170.86298607397893</t>
+          <t>-45.35991637760088,170.8629860352612</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -29695,7 +29695,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>-45.359947507959255,170.86308297164277</t>
+          <t>-45.35994752453778,170.86308302326648</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -29722,7 +29722,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>-45.35994369489878,170.86307109818853</t>
+          <t>-45.3599436824649,170.86307105947074</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>-45.35992036474488,170.86299845075226</t>
+          <t>-45.35992036888952,170.86299846365816</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -29818,7 +29818,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>-45.359919925413074,170.8629970827251</t>
+          <t>-45.35991992126843,170.8629970698192</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -29845,7 +29845,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>-45.36006812438545,170.86345856081775</t>
+          <t>-45.360068120240854,170.8634585479118</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -29891,7 +29891,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>-45.359906869790635,170.86295642909735</t>
+          <t>-45.359906865645996,170.86295641619145</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -29918,7 +29918,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>-45.359968587530446,170.8631486112248</t>
+          <t>-45.35996859996432,170.86314864994264</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -29972,7 +29972,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>-45.35994853582753,170.86308617231333</t>
+          <t>-45.3599485316829,170.8630861594074</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>-45.35994787268672,170.86308410736459</t>
+          <t>-45.35994786025284,170.8630840686468</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -30026,7 +30026,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>-45.35995589254342,170.86310908034196</t>
+          <t>-45.35995588010954,170.86310904162417</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -30053,7 +30053,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>-45.35982766123294,170.86270978459342</t>
+          <t>-45.35982767366697,170.86270982331104</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -30072,7 +30072,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>-45.35991422238736,170.8629793241857</t>
+          <t>-45.35991421409807,170.86297929837386</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -30095,7 +30095,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>-45.35990810074993,170.86296026215288</t>
+          <t>-45.35990809660529,170.86296024924698</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -30122,7 +30122,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>-45.35990265883131,170.86294331669328</t>
+          <t>-45.35990265054201,170.86294329088145</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -30149,7 +30149,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>-45.35990248475618,170.8629427746451</t>
+          <t>-45.35990250133476,170.86294282626872</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -30176,7 +30176,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>-45.359886714368585,170.86289366767727</t>
+          <t>-45.35988672265789,170.86289369348907</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -30203,7 +30203,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>-45.3598723531435,170.86284894874137</t>
+          <t>-45.35987236143282,170.86284897455315</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>-45.35991017307169,170.86296671510866</t>
+          <t>-45.35991018550562,170.8629667538264</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -30257,7 +30257,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>-45.359927327737445,170.86302013269523</t>
+          <t>-45.359927344316,170.86302018431888</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -30284,7 +30284,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>-45.3599208289445,170.86299989621494</t>
+          <t>-45.35992081651058,170.8629998574972</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -30303,7 +30303,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>-45.359880646597645,170.86287477344007</t>
+          <t>-45.359880642453,170.86287476053417</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -30330,7 +30330,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>-45.359885587023406,170.86289015727223</t>
+          <t>-45.359885603602,170.86289020889583</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -30357,7 +30357,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>-45.35987743863556,170.86286478427533</t>
+          <t>-45.3598774344909,170.86286477136943</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -30384,7 +30384,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>-45.359955556828595,170.86310803496139</t>
+          <t>-45.359955544394715,170.86310799624357</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -30430,7 +30430,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>-45.359897291513875,170.8629266035433</t>
+          <t>-45.35989727907993,170.86292656482559</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>-45.35991184336276,170.86297191619138</t>
+          <t>-45.359911826784185,170.86297186456773</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>-45.3599161579349,170.8629853512477</t>
+          <t>-45.35991615379027,170.8629853383418</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -30565,7 +30565,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>-45.359943276290984,170.86306979468984</t>
+          <t>-45.35994327214635,170.8630697817839</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>-45.35993687697787,170.8630498679401</t>
+          <t>-45.35993689355641,170.8630499195638</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -30619,7 +30619,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>-45.35993720440394,170.86305088750817</t>
+          <t>-45.35993719197005,170.86305084879038</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -30646,7 +30646,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>-45.35994219868668,170.86306643914875</t>
+          <t>-45.35994219039743,170.8630664133369</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -30673,7 +30673,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>-45.35986913274522,170.86283892086195</t>
+          <t>-45.35986911616659,170.86283886923837</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>-45.3598805802832,170.86287456694566</t>
+          <t>-45.35988056784924,170.862874528228</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -30727,7 +30727,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>-45.359930597855794,170.86303031546672</t>
+          <t>-45.359930589566524,170.8630302896549</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -30754,7 +30754,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>-45.35990977933057,170.862965489047</t>
+          <t>-45.35990977518594,170.8629654761411</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -30781,7 +30781,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>-45.35993006319772,170.86302865060287</t>
+          <t>-45.35993006734236,170.8630286635088</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -30808,7 +30808,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>-45.359957127642325,170.86311292631018</t>
+          <t>-45.359957111063814,170.86311287468646</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -30858,7 +30858,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>-45.359963423329056,170.86313253042601</t>
+          <t>-45.3599634150398,170.86313250461413</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>-45.35989337482127,170.8629144074629</t>
+          <t>-45.35989336238733,170.86291436874518</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -30904,7 +30904,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>-45.3599718037575,170.86315862623425</t>
+          <t>-45.35997180790211,170.8631586391402</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -30931,7 +30931,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>-45.35988218426394,170.86287956152847</t>
+          <t>-45.35988217182997,170.86287952281077</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -30958,7 +30958,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>-45.35990049947067,170.86293659271516</t>
+          <t>-45.35990048703675,170.86293655399743</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -31012,7 +31012,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>-45.359883672194194,170.86288419474633</t>
+          <t>-45.359883663904895,170.86288416893453</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -31039,7 +31039,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>-45.359859115104385,170.86280772732428</t>
+          <t>-45.35985911924905,170.86280774023015</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -31066,7 +31066,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>-45.35988595175273,170.8628912929915</t>
+          <t>-45.35988593931879,170.8628912542738</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -31093,7 +31093,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>-45.359881496251546,170.86287741914924</t>
+          <t>-45.359881500396206,170.86287743205517</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
@@ -31135,7 +31135,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>-45.35992060513398,170.86299919929544</t>
+          <t>-45.35992059270006,170.8629991605777</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -31162,7 +31162,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>-45.3599074666194,170.8629582875485</t>
+          <t>-45.35990746247475,170.86295827464258</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -31216,7 +31216,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>-45.35990178016638,170.8629405806407</t>
+          <t>-45.35990179260031,170.8629406193584</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -31243,7 +31243,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>-45.35986681588158,170.86283170646806</t>
+          <t>-45.359866803447595,170.86283166775038</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -31270,7 +31270,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>-45.35990827482497,170.86296080420115</t>
+          <t>-45.35990828311426,170.86296083001295</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>-45.3598758056416,170.86285969935213</t>
+          <t>-45.35987579320764,170.86285966063443</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>-45.35987159052674,170.8628465740568</t>
+          <t>-45.35987157809277,170.86284653533912</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -31351,7 +31351,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>-45.35990633513151,170.8629547642349</t>
+          <t>-45.359906343420796,170.86295479004673</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -31378,7 +31378,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>-45.35983698674036,170.86273882281407</t>
+          <t>-45.35983699917438,170.8627388615317</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>-45.35990660867804,170.862955616025</t>
+          <t>-45.3599066045334,170.86295560311908</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -31432,7 +31432,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>-45.35991863643001,170.86299306898513</t>
+          <t>-45.35991865300858,170.8629931206088</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>-45.35989528964893,170.8629203699909</t>
+          <t>-45.35989530208286,170.8629204087086</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -31509,7 +31509,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>-45.3598820474904,170.86287913563382</t>
+          <t>-45.35988205992435,170.8628791743515</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -31590,7 +31590,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>-45.35988981456731,170.86290332129187</t>
+          <t>-45.35988981871195,170.86290333419777</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -31640,7 +31640,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>-45.35997823206439,170.86317864335064</t>
+          <t>-45.35997822377514,170.86317861753878</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -31667,7 +31667,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>-45.359943355039,170.86307003990245</t>
+          <t>-45.35994334674972,170.86307001409057</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -31694,7 +31694,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>-45.35998707253498,170.86320617173303</t>
+          <t>-45.359987064245736,170.8632061459211</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>-45.35992508963314,170.86301316349866</t>
+          <t>-45.35992510621169,170.86301321512235</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -31817,7 +31817,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>-45.3599066128227,170.8629556289309</t>
+          <t>-45.3599066045334,170.86295560311908</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -31844,7 +31844,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>-45.35988244123241,170.8628803616942</t>
+          <t>-45.3598824329431,170.8628803358824</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -31898,7 +31898,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>-45.35990468970755,170.86294964058868</t>
+          <t>-45.35990470214148,170.8629496793064</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -31925,7 +31925,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>-45.359914815071114,170.86298116973137</t>
+          <t>-45.359914810926476,170.86298115682547</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -31952,7 +31952,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>-45.359844401549765,170.86276191143293</t>
+          <t>-45.359844384971105,170.8627618598094</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -31979,7 +31979,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>-45.359908817773295,170.86296249487552</t>
+          <t>-45.35990880533936,170.8629624561578</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -32006,7 +32006,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>-45.35990308572981,170.86294464600184</t>
+          <t>-45.35990309816375,170.86294468471957</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -32102,7 +32102,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>-45.359899575214484,170.86293371469782</t>
+          <t>-45.359899591793074,170.86293376632145</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -32129,7 +32129,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>-45.359940855825805,170.8630622576285</t>
+          <t>-45.35994084753655,170.86306223181666</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -32156,7 +32156,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>-45.35992152938855,170.86300207731495</t>
+          <t>-45.359921525243905,170.86300206440905</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -32183,7 +32183,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>-45.35992332401722,170.86300766557733</t>
+          <t>-45.35992331572794,170.8630076397655</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -32210,7 +32210,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>-45.359917989866126,170.86299105566226</t>
+          <t>-45.35991798157684,170.86299102985043</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -32237,7 +32237,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>-45.359939334745555,170.86305752115368</t>
+          <t>-45.35993931816702,170.86305746953</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -32264,7 +32264,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>-45.35988504821867,170.86288847950516</t>
+          <t>-45.359885044074026,170.86288846659926</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -32291,7 +32291,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>-45.35994001446536,170.8630596377255</t>
+          <t>-45.35994002689926,170.8630596764433</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -32318,7 +32318,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>-45.35988152526413,170.86287750949054</t>
+          <t>-45.35988153769808,170.86287754820822</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -32345,7 +32345,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>-45.35989793807888,170.86292861686465</t>
+          <t>-45.359897950512824,170.86292865558238</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -32372,7 +32372,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>-45.35992254482513,170.86300523926477</t>
+          <t>-45.35992253239122,170.863005200547</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -32399,7 +32399,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>-45.3599889583354,170.86321204393948</t>
+          <t>-45.359988966624634,170.86321206975137</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -32426,7 +32426,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>-45.35995889739791,170.86311843714412</t>
+          <t>-45.359958901542534,170.86311845005008</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>-45.35991384522496,170.8629781497475</t>
+          <t>-45.35991384108031,170.86297813684158</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -32480,7 +32480,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>-45.35995799386932,170.86311562365043</t>
+          <t>-45.35995800630321,170.86311566236822</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -32530,7 +32530,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>-45.35993739091247,170.86305146827476</t>
+          <t>-45.35993737847857,170.863051429557</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -32557,7 +32557,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>-45.359912096185944,170.86297270345207</t>
+          <t>-45.35991208789666,170.86297267764024</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -32584,7 +32584,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>-45.359870935671005,170.86284453492556</t>
+          <t>-45.35987094396032,170.86284456073736</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -32611,7 +32611,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>-45.35988509380985,170.86288862147006</t>
+          <t>-45.35988508137589,170.86288858275236</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -32638,7 +32638,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>-45.3599572022456,170.86311315861698</t>
+          <t>-45.359957185667106,170.86311310699324</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -32665,7 +32665,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>-45.35991323596258,170.8629762525782</t>
+          <t>-45.35991324425187,170.86297627839002</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -32692,7 +32692,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>-45.35994176764493,170.86306509693236</t>
+          <t>-45.359941780078834,170.86306513565015</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -32719,7 +32719,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>-45.359923062904976,170.86300685250453</t>
+          <t>-45.35992305461569,170.86300682669267</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -32746,7 +32746,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>-45.359936649023,170.86304915811428</t>
+          <t>-45.35993663244446,170.86304910649056</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -32773,7 +32773,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>-45.359864577766004,170.86282473728673</t>
+          <t>-45.359864565332025,170.86282469856906</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -32800,7 +32800,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>-45.359889507863194,170.86290236625507</t>
+          <t>-45.35988952029714,170.86290240497277</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -32827,7 +32827,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>-45.359912634989456,170.86297438122077</t>
+          <t>-45.35991264742338,170.86297441993852</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -32854,7 +32854,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>-45.359897295658534,170.8629266164492</t>
+          <t>-45.35989727907993,170.86292656482559</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -32881,7 +32881,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>-45.360007957240214,170.8632712048287</t>
+          <t>-45.360007953095604,170.86327119192273</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -32904,7 +32904,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>-45.35989906127826,170.86293211436535</t>
+          <t>-45.35989906956756,170.86293214017718</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -32931,7 +32931,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>-45.35992667702939,170.8630181064658</t>
+          <t>-45.359926672884754,170.86301809355987</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -32958,7 +32958,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>-45.35991471559973,170.86298085998945</t>
+          <t>-45.35991469902115,170.8629808083658</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -32985,7 +32985,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>-45.359929520250354,170.8630269599272</t>
+          <t>-45.35992950781645,170.86302692120944</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -33012,7 +33012,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>-45.35992705833603,170.86301929381042</t>
+          <t>-45.35992704590211,170.86301925509267</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -18673,13 +18673,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0398</v>
+        <v>0.0566</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0464</v>
+        <v>0.073</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3390788029307067</v>
@@ -18751,13 +18751,13 @@
         <v>0.5005617308417013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.035</v>
+        <v>0.0592</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0407</v>
+        <v>0.0819</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3788691206756205</v>
@@ -18829,13 +18829,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0473</v>
+        <v>0.0471</v>
       </c>
       <c r="H4" t="n">
-        <v>0.055</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3094497226398429</v>

--- a/data/nzd0484/nzd0484.xlsx
+++ b/data/nzd0484/nzd0484.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E550"/>
+  <dimension ref="A1:E551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11987,6 +11987,27 @@
         <v>344.47</v>
       </c>
       <c r="E550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>331.38</v>
+      </c>
+      <c r="C551" t="n">
+        <v>339.9</v>
+      </c>
+      <c r="D551" t="n">
+        <v>343.14</v>
+      </c>
+      <c r="E551" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12003,7 +12024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18911,6 +18932,16 @@
       </c>
       <c r="B690" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -19081,31 +19112,31 @@
         <v>0.0569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.073</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3183372138714889</v>
+        <v>-0.3183553795960521</v>
       </c>
       <c r="J2" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2578018104963251</v>
+        <v>0.2585842086084258</v>
       </c>
       <c r="M2" t="n">
-        <v>2.897701839109711</v>
+        <v>2.892510325934103</v>
       </c>
       <c r="N2" t="n">
-        <v>12.89483591346594</v>
+        <v>12.87139443064293</v>
       </c>
       <c r="O2" t="n">
-        <v>3.5909380269598</v>
+        <v>3.587672564580403</v>
       </c>
       <c r="P2" t="n">
-        <v>339.7711353247422</v>
+        <v>339.7713512907369</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19159,31 +19190,31 @@
         <v>0.0594</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.0818</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3692989165027238</v>
+        <v>-0.3689228717325599</v>
       </c>
       <c r="J3" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4675118577650947</v>
+        <v>0.4679360643847933</v>
       </c>
       <c r="M3" t="n">
-        <v>1.99494405038857</v>
+        <v>1.992987210020869</v>
       </c>
       <c r="N3" t="n">
-        <v>6.865630839915678</v>
+        <v>6.854722002236013</v>
       </c>
       <c r="O3" t="n">
-        <v>2.620234882585086</v>
+        <v>2.618152402408235</v>
       </c>
       <c r="P3" t="n">
-        <v>348.6536540182442</v>
+        <v>348.6491833524826</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19234,34 +19265,34 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.047</v>
+        <v>0.0469</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0789</v>
+        <v>0.0785</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2804731473411176</v>
+        <v>-0.2804940812204978</v>
       </c>
       <c r="J4" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L4" t="n">
-        <v>0.233669946040262</v>
+        <v>0.2344085180159512</v>
       </c>
       <c r="M4" t="n">
-        <v>2.715467295144416</v>
+        <v>2.710618726602378</v>
       </c>
       <c r="N4" t="n">
-        <v>11.40256735657485</v>
+        <v>11.3818402941336</v>
       </c>
       <c r="O4" t="n">
-        <v>3.376768774520229</v>
+        <v>3.373698311072523</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5467259609936</v>
+        <v>350.5469748366202</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19299,7 +19330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E550"/>
+  <dimension ref="A1:E551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34157,6 +34188,33 @@
         </is>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-45.35991115535207,170.86296977380988</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-45.360522134821686,170.86271096967144</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-45.36112533117598,170.86244632424177</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
